--- a/Results/SingleDim/school_points_fraction.xlsx
+++ b/Results/SingleDim/school_points_fraction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="124">
   <si>
     <t>Row</t>
   </si>
@@ -40,55 +40,76 @@
     <t>location</t>
   </si>
   <si>
+    <t>Clarendon Elementary School</t>
+  </si>
+  <si>
     <t>Grattan Elementary School</t>
   </si>
   <si>
-    <t>Clarendon Elementary School</t>
-  </si>
-  <si>
     <t>Alice Fong Yu School</t>
   </si>
   <si>
+    <t>Alvarado Elementary School</t>
+  </si>
+  <si>
+    <t>Rooftop School</t>
+  </si>
+  <si>
     <t>Sherman Elementary School</t>
   </si>
   <si>
+    <t>Ulloa Elementary School</t>
+  </si>
+  <si>
+    <t>Sunset Elementary School</t>
+  </si>
+  <si>
+    <t>Alamo Elementary School</t>
+  </si>
+  <si>
+    <t>Lakeshore Elementary School</t>
+  </si>
+  <si>
+    <t>Claire Lilienthal School</t>
+  </si>
+  <si>
+    <t>Lawton School</t>
+  </si>
+  <si>
+    <t>Dr. George Washington Carver Elementary School</t>
+  </si>
+  <si>
+    <t>Jose Ortega Elementary School</t>
+  </si>
+  <si>
+    <t>Miraloma Elementary School</t>
+  </si>
+  <si>
+    <t>Sunnyside Elementary School</t>
+  </si>
+  <si>
+    <t>Lafayette Elementary School</t>
+  </si>
+  <si>
+    <t>Mckinley Elementary School</t>
+  </si>
+  <si>
     <t>not_in_sfusd</t>
   </si>
   <si>
-    <t>Alvarado Elementary School</t>
-  </si>
-  <si>
-    <t>Alamo Elementary School</t>
-  </si>
-  <si>
-    <t>Rooftop School</t>
-  </si>
-  <si>
-    <t>Ulloa Elementary School</t>
-  </si>
-  <si>
-    <t>Claire Lilienthal School</t>
-  </si>
-  <si>
-    <t>Jose Ortega Elementary School</t>
-  </si>
-  <si>
-    <t>Dr. George Washington Carver Elementary School</t>
-  </si>
-  <si>
-    <t>Sunset Elementary School</t>
-  </si>
-  <si>
-    <t>Lawton School</t>
-  </si>
-  <si>
-    <t>Lakeshore Elementary School</t>
-  </si>
-  <si>
-    <t>Lafayette Elementary School</t>
-  </si>
-  <si>
-    <t>Mckinley Elementary School</t>
+    <t>Commodore Sloat Elementary School</t>
+  </si>
+  <si>
+    <t>Jefferson Elementary School</t>
+  </si>
+  <si>
+    <t>West Portal Elementary School</t>
+  </si>
+  <si>
+    <t>Argonne Elementary School</t>
+  </si>
+  <si>
+    <t>George Peabody Elementary School</t>
   </si>
   <si>
     <t>Rosa Parks Elementary School</t>
@@ -97,160 +118,133 @@
     <t>Daniel Webster Elementary School</t>
   </si>
   <si>
-    <t>Miraloma Elementary School</t>
-  </si>
-  <si>
-    <t>Argonne Elementary School</t>
-  </si>
-  <si>
-    <t>Sunnyside Elementary School</t>
-  </si>
-  <si>
-    <t>Commodore Sloat Elementary School</t>
-  </si>
-  <si>
-    <t>Jefferson Elementary School</t>
+    <t>Dianne Feinstein Elementary School</t>
+  </si>
+  <si>
+    <t>Harvey Milk Civil Rights Academy</t>
   </si>
   <si>
     <t>Sutro Elementary School</t>
   </si>
   <si>
-    <t>West Portal Elementary School</t>
-  </si>
-  <si>
-    <t>Harvey Milk Civil Rights Academy</t>
-  </si>
-  <si>
-    <t>George Peabody Elementary School</t>
+    <t>Chinese Immersion School at De Avila</t>
+  </si>
+  <si>
+    <t>Buena Vista Horace Mann School</t>
+  </si>
+  <si>
+    <t>Glen Park Elementary School</t>
+  </si>
+  <si>
+    <t>Leonard R. Flynn Elementary School</t>
+  </si>
+  <si>
+    <t>Yick Wo Elementary School</t>
+  </si>
+  <si>
+    <t>Robert Louis Stevenson Elementary School</t>
+  </si>
+  <si>
+    <t>John Yehall Chin Elementary School</t>
+  </si>
+  <si>
+    <t>Starr King Elementary School</t>
+  </si>
+  <si>
+    <t>Marshall Elementary School</t>
   </si>
   <si>
     <t>Gordon J. Lau Elementary School</t>
   </si>
   <si>
-    <t>Yick Wo Elementary School</t>
+    <t>Monroe Elementary School</t>
+  </si>
+  <si>
+    <t>Junipero Serra Elementary School</t>
+  </si>
+  <si>
+    <t>Dr. William L. Cobb Elementary School</t>
+  </si>
+  <si>
+    <t>Guadalupe Elementary School</t>
+  </si>
+  <si>
+    <t>Malcolm X Academy Elementary School</t>
   </si>
   <si>
     <t>Spring Valley Science School</t>
   </si>
   <si>
-    <t>John Yehall Chin Elementary School</t>
-  </si>
-  <si>
-    <t>Starr King Elementary School</t>
-  </si>
-  <si>
-    <t>Buena Vista Horace Mann School</t>
-  </si>
-  <si>
-    <t>Leonard R. Flynn Elementary School</t>
-  </si>
-  <si>
-    <t>Chinese Immersion School at De Avila</t>
-  </si>
-  <si>
-    <t>Marshall Elementary School</t>
-  </si>
-  <si>
-    <t>Dianne Feinstein Elementary School</t>
+    <t>Bryant School</t>
+  </si>
+  <si>
+    <t>Sheridan Elementary School</t>
   </si>
   <si>
     <t>Jean Parker Elementary School</t>
   </si>
   <si>
-    <t>Dr. William L. Cobb Elementary School</t>
-  </si>
-  <si>
-    <t>Monroe Elementary School</t>
-  </si>
-  <si>
     <t>San Francisco Public Montessori School</t>
   </si>
   <si>
-    <t>Malcolm X Academy Elementary School</t>
-  </si>
-  <si>
-    <t>Junipero Serra Elementary School</t>
+    <t>Cesar Chavez Elementary School</t>
+  </si>
+  <si>
+    <t>Cleveland Elementary School</t>
+  </si>
+  <si>
+    <t>New Traditions Elementary School</t>
+  </si>
+  <si>
+    <t>Sanchez College Preparatory School</t>
+  </si>
+  <si>
+    <t>SF Community School</t>
+  </si>
+  <si>
+    <t>Dr. Charles Drew Elementary School</t>
+  </si>
+  <si>
+    <t>Paul Revere School</t>
+  </si>
+  <si>
+    <t>Redding Elementary School</t>
+  </si>
+  <si>
+    <t>Mission Education Center</t>
+  </si>
+  <si>
+    <t>Bret Harte Elementary School</t>
   </si>
   <si>
     <t>Garfield Elementary School</t>
   </si>
   <si>
-    <t>Mission Education Center</t>
-  </si>
-  <si>
-    <t>Paul Revere School</t>
-  </si>
-  <si>
-    <t>Sanchez College Preparatory School</t>
-  </si>
-  <si>
-    <t>New Traditions Elementary School</t>
-  </si>
-  <si>
-    <t>Cesar Chavez Elementary School</t>
-  </si>
-  <si>
-    <t>SF Community School</t>
-  </si>
-  <si>
-    <t>Guadalupe Elementary School</t>
-  </si>
-  <si>
-    <t>Glen Park Elementary School</t>
+    <t>El Dorado Elementary School</t>
+  </si>
+  <si>
+    <t>Longfellow Elementary School</t>
+  </si>
+  <si>
+    <t>Frank Mccoppin Elementary School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edwin and Anita Lee Newcomer School </t>
   </si>
   <si>
     <t>Francis Scott Key Elementary School</t>
   </si>
   <si>
-    <t>Robert Louis Stevenson Elementary School</t>
-  </si>
-  <si>
-    <t>Dr. Charles Drew Elementary School</t>
-  </si>
-  <si>
-    <t>Sheridan Elementary School</t>
+    <t>Edward Robeson Taylor School</t>
+  </si>
+  <si>
+    <t>George R. Moscone Elementary School</t>
   </si>
   <si>
     <t>Bessie Carmichael School</t>
   </si>
   <si>
-    <t>Cleveland Elementary School</t>
-  </si>
-  <si>
     <t>Hillcrest Elementary School</t>
-  </si>
-  <si>
-    <t>Bret Harte Elementary School</t>
-  </si>
-  <si>
-    <t>Bryant School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edwin and Anita Lee Newcomer School </t>
-  </si>
-  <si>
-    <t>Redding Elementary School</t>
-  </si>
-  <si>
-    <t>El Dorado Elementary School</t>
-  </si>
-  <si>
-    <t>Longfellow Elementary School</t>
-  </si>
-  <si>
-    <t>George R. Moscone Elementary School</t>
-  </si>
-  <si>
-    <t>Edward Robeson Taylor School</t>
-  </si>
-  <si>
-    <t>Frank Mccoppin Elementary School</t>
-  </si>
-  <si>
-    <t>John Muir Elementary School</t>
-  </si>
-  <si>
-    <t>Dolores Huerta Elementary School</t>
   </si>
   <si>
     <t>Hispanic</t>
@@ -749,13 +743,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CA46"/>
+  <dimension ref="A1:BY46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:79">
+    <row r="1" spans="1:77">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -987,70 +981,64 @@
       <c r="BY1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>78</v>
-      </c>
     </row>
-    <row r="2" spans="1:79">
+    <row r="2" spans="1:77">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I2">
-        <v>0.01841977702375182</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0165361183637946</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.02010338885697875</v>
+        <v>0.02289719626168224</v>
       </c>
       <c r="M2">
-        <v>0.02865671641791045</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.03117505995203837</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.01721518987341772</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.01570415400202634</v>
       </c>
       <c r="Q2">
-        <v>0.02124919510624598</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.03584491587417703</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.03335804299481097</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.02007434944237918</v>
+        <v>0.02891566265060241</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.03146206045650833</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -1059,16 +1047,16 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.02525252525252525</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.03722943722943723</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.04806687565308255</v>
+        <v>0.03367496339677892</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.02481203007518797</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1077,22 +1065,22 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0253968253968254</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.04413239719157473</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.04952581664910432</v>
       </c>
       <c r="AI2">
-        <v>0.05714285714285714</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.06746626686656672</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -1101,82 +1089,82 @@
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.1291866028708134</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.08533333333333333</v>
       </c>
       <c r="AO2">
-        <v>0.06862745098039216</v>
+        <v>0.146814404432133</v>
       </c>
       <c r="AP2">
-        <v>0.08937605396290051</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.08644067796610169</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.07428571428571429</v>
+        <v>0.135048231511254</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>0.1331168831168831</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>0.1182432432432432</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="AW2">
-        <v>0.09234234234234234</v>
+        <v>0</v>
       </c>
       <c r="AX2">
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>0.1776859504132231</v>
       </c>
       <c r="AZ2">
-        <v>0.1107784431137725</v>
+        <v>0</v>
       </c>
       <c r="BA2">
         <v>0</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="BC2">
-        <v>0.1152542372881356</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.09454545454545454</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.1831501831501831</v>
+        <v>0.3537414965986395</v>
       </c>
       <c r="BG2">
-        <v>0.1066176470588235</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="BH2">
-        <v>0.1481481481481481</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.1311475409836066</v>
+        <v>0.3025210084033613</v>
       </c>
       <c r="BJ2">
         <v>0</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>0.4252873563218391</v>
       </c>
       <c r="BL2">
-        <v>0.1371681415929203</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="BM2">
         <v>0</v>
@@ -1185,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.1352657004830918</v>
+        <v>0</v>
       </c>
       <c r="BP2">
         <v>0</v>
@@ -1194,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.2716763005780347</v>
+        <v>0</v>
       </c>
       <c r="BS2">
         <v>0</v>
@@ -1203,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.2016129032258064</v>
+        <v>0</v>
       </c>
       <c r="BV2">
         <v>0</v>
@@ -1217,112 +1205,106 @@
       <c r="BY2">
         <v>0</v>
       </c>
-      <c r="BZ2">
-        <v>0</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:79">
+    <row r="3" spans="1:77">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I3">
-        <v>0.02472127968977218</v>
+        <v>0.02180418982471142</v>
       </c>
       <c r="J3">
-        <v>0.02332506203473945</v>
+        <v>0.0226283724978242</v>
       </c>
       <c r="K3">
-        <v>0.007070707070707071</v>
+        <v>0.020655590480467</v>
       </c>
       <c r="L3">
-        <v>0.01952900631820793</v>
+        <v>0.02523364485981308</v>
       </c>
       <c r="M3">
-        <v>0.02925373134328358</v>
+        <v>0.0235917188252287</v>
       </c>
       <c r="N3">
-        <v>0.03177458033573141</v>
+        <v>0.02004008016032064</v>
       </c>
       <c r="O3">
-        <v>0.01745936183022276</v>
+        <v>0.01113924050632911</v>
       </c>
       <c r="P3">
-        <v>0.02322738386308068</v>
+        <v>0.02077001013171226</v>
       </c>
       <c r="Q3">
-        <v>0.02253702511268512</v>
+        <v>0.0148489503328213</v>
       </c>
       <c r="R3">
-        <v>0.01798063623789765</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="S3">
-        <v>0.03803950256035114</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.02965159377316531</v>
+        <v>0.01375598086124402</v>
       </c>
       <c r="U3">
-        <v>0.03345724907063197</v>
+        <v>0.02590361445783133</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.03269586674892042</v>
       </c>
       <c r="W3">
-        <v>0.01624695369618196</v>
+        <v>0.02483221476510067</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.02149093351242445</v>
       </c>
       <c r="Y3">
-        <v>0.01515151515151515</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="Z3">
-        <v>0.03722943722943723</v>
+        <v>0.02442528735632184</v>
       </c>
       <c r="AA3">
-        <v>0.04806687565308255</v>
+        <v>0.0322108345534407</v>
       </c>
       <c r="AB3">
-        <v>0.04079497907949791</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.03157894736842105</v>
+        <v>0.0219435736677116</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.01410658307210031</v>
       </c>
       <c r="AE3">
-        <v>0.02010582010582011</v>
+        <v>0.02667744543249798</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.03811434302908726</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.0505795574288725</v>
       </c>
       <c r="AI3">
-        <v>0.05714285714285714</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.02257636122177955</v>
+        <v>0.0704647676161919</v>
       </c>
       <c r="AK3">
         <v>0</v>
@@ -1331,85 +1313,85 @@
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.1196172248803828</v>
       </c>
       <c r="AN3">
-        <v>0.03870967741935484</v>
+        <v>0.08266666666666667</v>
       </c>
       <c r="AO3">
-        <v>0.05065359477124183</v>
+        <v>0.1246537396121884</v>
       </c>
       <c r="AP3">
-        <v>0.08431703204047218</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.08135593220338982</v>
+        <v>0.08544303797468354</v>
       </c>
       <c r="AR3">
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.06857142857142857</v>
+        <v>0.06430868167202572</v>
       </c>
       <c r="AT3">
-        <v>0.05182341650671785</v>
+        <v>0.1266233766233766</v>
       </c>
       <c r="AU3">
         <v>0</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>0.09154929577464789</v>
       </c>
       <c r="AW3">
-        <v>0.09234234234234234</v>
+        <v>0.1356589147286822</v>
       </c>
       <c r="AX3">
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>0.1239669421487603</v>
       </c>
       <c r="AZ3">
-        <v>0.09880239520958084</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0696969696969697</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>0.2057142857142857</v>
       </c>
       <c r="BC3">
-        <v>0.0711864406779661</v>
+        <v>0.1158536585365854</v>
       </c>
       <c r="BD3">
-        <v>0.1284722222222222</v>
+        <v>0</v>
       </c>
       <c r="BE3">
         <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.1538461538461539</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="BG3">
         <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.09259259259259259</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.1311475409836066</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
         <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="BL3">
         <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.06756756756756757</v>
+        <v>0</v>
       </c>
       <c r="BN3">
         <v>0</v>
@@ -1418,13 +1400,13 @@
         <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.06701030927835051</v>
+        <v>0.328125</v>
       </c>
       <c r="BQ3">
         <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.161849710982659</v>
+        <v>0</v>
       </c>
       <c r="BS3">
         <v>0</v>
@@ -1447,118 +1429,112 @@
       <c r="BY3">
         <v>0</v>
       </c>
-      <c r="BZ3">
-        <v>0</v>
-      </c>
-      <c r="CA3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:79">
+    <row r="4" spans="1:77">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I4">
-        <v>0.02423654871546292</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J4">
-        <v>0.02630272952853598</v>
+        <v>0.02219321148825065</v>
       </c>
       <c r="K4">
-        <v>0.02626262626262626</v>
+        <v>0.02379883251010328</v>
       </c>
       <c r="L4">
-        <v>0.02757036186099943</v>
+        <v>0.0191588785046729</v>
       </c>
       <c r="M4">
-        <v>0.02447761194029851</v>
+        <v>0.02311025517573423</v>
       </c>
       <c r="N4">
-        <v>0.01558752997601918</v>
+        <v>0.02454909819639279</v>
       </c>
       <c r="O4">
-        <v>0.02347983142685129</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="P4">
-        <v>0.02811735941320294</v>
+        <v>0.02634245187436677</v>
       </c>
       <c r="Q4">
-        <v>0.02768834513844173</v>
+        <v>0.01792114695340502</v>
       </c>
       <c r="R4">
-        <v>0.0276625172890733</v>
+        <v>0.02514285714285714</v>
       </c>
       <c r="S4">
-        <v>0.03584491587417703</v>
+        <v>0.02750146284376829</v>
       </c>
       <c r="T4">
-        <v>0.02594514455151965</v>
+        <v>0.02691387559808613</v>
       </c>
       <c r="U4">
-        <v>0.0379182156133829</v>
+        <v>0.02289156626506024</v>
       </c>
       <c r="V4">
-        <v>0.03413498836307215</v>
+        <v>0.0283775447254781</v>
       </c>
       <c r="W4">
-        <v>0.03655564581640942</v>
+        <v>0.02080536912751678</v>
       </c>
       <c r="X4">
-        <v>0.02528548123980424</v>
+        <v>0.0241773002014775</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.02943722943722944</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.03970741901776385</v>
+        <v>0.03074670571010249</v>
       </c>
       <c r="AB4">
-        <v>0.02928870292887029</v>
+        <v>0.02406015037593985</v>
       </c>
       <c r="AC4">
-        <v>0.02421052631578947</v>
+        <v>0.03134796238244514</v>
       </c>
       <c r="AD4">
-        <v>0.03805496828752643</v>
+        <v>0.03056426332288401</v>
       </c>
       <c r="AE4">
-        <v>0.03915343915343916</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.03726708074534162</v>
+        <v>0.03919781221513218</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.06056701030927835</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.05577689243027888</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.04545454545454546</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="AL4">
-        <v>0.04775687409551375</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1567,25 +1543,25 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0392156862745098</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.04215851602023609</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.03963963963963964</v>
+        <v>0</v>
       </c>
       <c r="AS4">
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.04030710172744722</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.05598455598455598</v>
+        <v>0.125</v>
       </c>
       <c r="AV4">
         <v>0</v>
@@ -1606,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.08411214953271028</v>
+        <v>0</v>
       </c>
       <c r="BC4">
         <v>0</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="BE4">
         <v>0</v>
@@ -1660,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU4">
         <v>0</v>
@@ -1677,121 +1653,115 @@
       <c r="BY4">
         <v>0</v>
       </c>
-      <c r="BZ4">
-        <v>0</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:79">
+    <row r="5" spans="1:77">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I5">
-        <v>0.02375181774115366</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J5">
-        <v>0.02580645161290323</v>
+        <v>0.02175805047867711</v>
       </c>
       <c r="K5">
-        <v>0.02676767676767677</v>
+        <v>0.02379883251010328</v>
       </c>
       <c r="L5">
-        <v>0.0269959793222286</v>
+        <v>0.01775700934579439</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02118440057775638</v>
       </c>
       <c r="N5">
-        <v>0.02278177458033573</v>
+        <v>0.02354709418837675</v>
       </c>
       <c r="O5">
-        <v>0.01986754966887417</v>
+        <v>0.02582278481012658</v>
       </c>
       <c r="P5">
-        <v>0.02078239608801956</v>
+        <v>0.02634245187436677</v>
       </c>
       <c r="Q5">
-        <v>0.03219575016097875</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="R5">
-        <v>0.0297372060857538</v>
+        <v>0.02571428571428571</v>
       </c>
       <c r="S5">
-        <v>0.03291880029261156</v>
+        <v>0.02399063779988297</v>
       </c>
       <c r="T5">
-        <v>0.02372127501853225</v>
+        <v>0.02870813397129187</v>
       </c>
       <c r="U5">
-        <v>0.0379182156133829</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.03568657874321179</v>
+        <v>0.0283775447254781</v>
       </c>
       <c r="W5">
-        <v>0.03330625507717303</v>
+        <v>0.02483221476510067</v>
       </c>
       <c r="X5">
-        <v>0.03181076672104405</v>
+        <v>0.02686366689053056</v>
       </c>
       <c r="Y5">
-        <v>0.0202020202020202</v>
+        <v>0.02134986225895317</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0303030303030303</v>
+        <v>0.02489019033674963</v>
       </c>
       <c r="AB5">
-        <v>0.02928870292887029</v>
+        <v>0.03233082706766918</v>
       </c>
       <c r="AC5">
-        <v>0.03894736842105263</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.0384012539184953</v>
       </c>
       <c r="AE5">
-        <v>0.04656084656084656</v>
+        <v>0.02910266774454325</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.02552415679124886</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.06185567010309279</v>
+        <v>0.03371970495258166</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.04714285714285715</v>
       </c>
       <c r="AJ5">
-        <v>0.04780876494023904</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.05965909090909091</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.05788712011577424</v>
+        <v>0.07641921397379912</v>
       </c>
       <c r="AM5">
-        <v>0.03993855606758832</v>
+        <v>0</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -1806,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.06306306306306306</v>
+        <v>0</v>
       </c>
       <c r="AS5">
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.05182341650671785</v>
+        <v>0.08766233766233766</v>
       </c>
       <c r="AU5">
-        <v>0.05791505791505792</v>
+        <v>0.1317567567567567</v>
       </c>
       <c r="AV5">
         <v>0</v>
@@ -1827,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>0.1198347107438017</v>
       </c>
       <c r="AZ5">
         <v>0</v>
@@ -1842,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="BE5">
         <v>0</v>
@@ -1857,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.1024590163934426</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
         <v>0</v>
@@ -1875,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.1497584541062802</v>
+        <v>0</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -1907,43 +1877,37 @@
       <c r="BY5">
         <v>0</v>
       </c>
-      <c r="BZ5">
-        <v>0</v>
-      </c>
-      <c r="CA5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:79">
+    <row r="6" spans="1:77">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I6">
-        <v>0.01793504604944256</v>
+        <v>0.01966652415562206</v>
       </c>
       <c r="J6">
-        <v>0.02332506203473945</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.02525252525252525</v>
+        <v>0.02110462505612932</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.01822429906542056</v>
       </c>
       <c r="M6">
-        <v>0.02567164179104478</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1955,37 +1919,37 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.025756600128783</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.02904564315352697</v>
+        <v>0.01828571428571429</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.03928836174944404</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.03253012048192771</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.03330625507717303</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.02272727272727273</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.04415584415584416</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.03970741901776385</v>
+        <v>0.02708638360175696</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1994,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0306553911205074</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -2003,16 +1967,16 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.05215646940822467</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.04741833508956796</v>
       </c>
       <c r="AI6">
-        <v>0.04675324675324675</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>0.04497751124437781</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -2024,64 +1988,64 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.07096774193548387</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.07516339869281045</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.04721753794266442</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.05945945945945946</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="AS6">
-        <v>0.09333333333333334</v>
+        <v>0.157556270096463</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>0.1655844155844156</v>
       </c>
       <c r="AU6">
-        <v>0.06177606177606178</v>
+        <v>0.1114864864864865</v>
       </c>
       <c r="AV6">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>0.1201550387596899</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="AY6">
-        <v>0.1416893732970027</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.1017964071856287</v>
+        <v>0.2431192660550459</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>0.1914893617021277</v>
       </c>
       <c r="BB6">
         <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.1322033898305085</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>0.2160493827160494</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="BF6">
-        <v>0.1282051282051282</v>
+        <v>0.2789115646258503</v>
       </c>
       <c r="BG6">
-        <v>0</v>
+        <v>0.2575757575757576</v>
       </c>
       <c r="BH6">
         <v>0</v>
@@ -2093,25 +2057,25 @@
         <v>0</v>
       </c>
       <c r="BK6">
-        <v>0</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="BL6">
-        <v>0.2123893805309734</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="BM6">
         <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.1382488479262673</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="BO6">
-        <v>0</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="BP6">
         <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="BR6">
         <v>0</v>
@@ -2123,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW6">
         <v>0</v>
@@ -2137,118 +2101,112 @@
       <c r="BY6">
         <v>0</v>
       </c>
-      <c r="BZ6">
-        <v>0</v>
-      </c>
-      <c r="CA6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:79">
+    <row r="7" spans="1:77">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I7">
-        <v>0.02520601066408143</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J7">
-        <v>0.02630272952853598</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K7">
-        <v>0.02575757575757576</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L7">
-        <v>0.0269959793222286</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="M7">
-        <v>0.0191044776119403</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N7">
-        <v>0.02937649880095923</v>
+        <v>0.02354709418837675</v>
       </c>
       <c r="O7">
-        <v>0.02889825406381698</v>
+        <v>0.02329113924050633</v>
       </c>
       <c r="P7">
-        <v>0.03056234718826406</v>
+        <v>0.02279635258358663</v>
       </c>
       <c r="Q7">
-        <v>0.02962009014810045</v>
+        <v>0.02508960573476703</v>
       </c>
       <c r="R7">
-        <v>0.03112033195020747</v>
+        <v>0.02228571428571429</v>
       </c>
       <c r="S7">
-        <v>0.02779809802487198</v>
+        <v>0.0280866003510825</v>
       </c>
       <c r="T7">
-        <v>0.02297998517420312</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="U7">
-        <v>0.03197026022304833</v>
+        <v>0.01626506024096385</v>
       </c>
       <c r="V7">
-        <v>0.03258339798293251</v>
+        <v>0.0215916101172116</v>
       </c>
       <c r="W7">
-        <v>0.02843216896831844</v>
+        <v>0.02818791946308725</v>
       </c>
       <c r="X7">
-        <v>0.03017944535073409</v>
+        <v>0.0241773002014775</v>
       </c>
       <c r="Y7">
-        <v>0.02861952861952862</v>
+        <v>0.02823691460055096</v>
       </c>
       <c r="Z7">
-        <v>0.02857142857142857</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="AA7">
-        <v>0.04179728317659352</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.04079497907949791</v>
+        <v>0.03233082706766918</v>
       </c>
       <c r="AC7">
-        <v>0.03157894736842105</v>
+        <v>0.02664576802507837</v>
       </c>
       <c r="AD7">
-        <v>0.02854122621564482</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="AE7">
-        <v>0.02962962962962963</v>
+        <v>0.0307194826192401</v>
       </c>
       <c r="AF7">
-        <v>0.05093167701863354</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.03602484472049689</v>
+        <v>0.0320962888665998</v>
       </c>
       <c r="AH7">
-        <v>0.05670103092783505</v>
+        <v>0.03898840885142255</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AJ7">
         <v>0</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>0.04031007751937984</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>0.06550218340611354</v>
       </c>
       <c r="AM7">
         <v>0</v>
@@ -2263,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.09810126582278481</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>0.1044303797468354</v>
       </c>
       <c r="AS7">
         <v>0</v>
@@ -2296,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>0.1121495327102804</v>
+        <v>0</v>
       </c>
       <c r="BC7">
         <v>0</v>
@@ -2311,19 +2269,19 @@
         <v>0</v>
       </c>
       <c r="BG7">
-        <v>0.08823529411764706</v>
+        <v>0</v>
       </c>
       <c r="BH7">
         <v>0</v>
       </c>
       <c r="BI7">
-        <v>0.1065573770491803</v>
+        <v>0</v>
       </c>
       <c r="BJ7">
         <v>0</v>
       </c>
       <c r="BK7">
-        <v>0.1033057851239669</v>
+        <v>0</v>
       </c>
       <c r="BL7">
         <v>0</v>
@@ -2367,190 +2325,184 @@
       <c r="BY7">
         <v>0</v>
       </c>
-      <c r="BZ7">
-        <v>0</v>
-      </c>
-      <c r="CA7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:79">
+    <row r="8" spans="1:77">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I8">
-        <v>0.02084343189529811</v>
+        <v>0.01795639162035058</v>
       </c>
       <c r="J8">
-        <v>0.02183622828784119</v>
+        <v>0.02088772845953003</v>
       </c>
       <c r="K8">
-        <v>0.02070707070707071</v>
+        <v>0.01751234845083071</v>
       </c>
       <c r="L8">
-        <v>0.02240091901206203</v>
+        <v>0.02476635514018691</v>
       </c>
       <c r="M8">
-        <v>0.02805970149253731</v>
+        <v>0.01588830043331729</v>
       </c>
       <c r="N8">
-        <v>0.03117505995203837</v>
+        <v>0.01402805611222445</v>
       </c>
       <c r="O8">
-        <v>0.01143889223359422</v>
+        <v>0.007088607594936709</v>
       </c>
       <c r="P8">
-        <v>0.009779951100244499</v>
+        <v>0.02330293819655522</v>
       </c>
       <c r="Q8">
-        <v>0.01931745009658725</v>
+        <v>0.01280081925243216</v>
       </c>
       <c r="R8">
-        <v>0.01383125864453665</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0.02926115581565472</v>
+        <v>0.01345816266822703</v>
       </c>
       <c r="T8">
-        <v>0.0340993328391401</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.03643122676579925</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.02467612584824183</v>
       </c>
       <c r="W8">
-        <v>0.01462225832656377</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.02356902356902357</v>
+        <v>0.01308539944903581</v>
       </c>
       <c r="Z8">
-        <v>0.04588744588744589</v>
+        <v>0.02658045977011494</v>
       </c>
       <c r="AA8">
-        <v>0.03239289446185998</v>
+        <v>0.03733528550512445</v>
       </c>
       <c r="AB8">
-        <v>0.01569037656903766</v>
+        <v>0.03233082706766918</v>
       </c>
       <c r="AC8">
-        <v>0.02210526315789474</v>
+        <v>0.02115987460815047</v>
       </c>
       <c r="AD8">
-        <v>0.02854122621564482</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.03386243386243386</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.01614906832298137</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.04472049689440994</v>
+        <v>0.05416248746238716</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.04636459430979979</v>
       </c>
       <c r="AI8">
-        <v>0.06233766233766234</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>0.0734632683658171</v>
       </c>
       <c r="AK8">
-        <v>0.01988636363636364</v>
+        <v>0.04031007751937984</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>0.1244019138755981</v>
       </c>
       <c r="AN8">
-        <v>0.03709677419354838</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="AO8">
-        <v>0.07352941176470588</v>
+        <v>0.08310249307479224</v>
       </c>
       <c r="AP8">
-        <v>0.08600337268128162</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="AQ8">
-        <v>0.0576271186440678</v>
+        <v>0</v>
       </c>
       <c r="AR8">
-        <v>0.04504504504504504</v>
+        <v>0.129746835443038</v>
       </c>
       <c r="AS8">
-        <v>0.07238095238095238</v>
+        <v>0.1093247588424437</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>0.1461038961038961</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>0.07094594594594594</v>
       </c>
       <c r="AV8">
-        <v>0.04848484848484848</v>
+        <v>0.1091549295774648</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="AX8">
         <v>0</v>
       </c>
       <c r="AY8">
-        <v>0.1362397820163488</v>
+        <v>0</v>
       </c>
       <c r="AZ8">
-        <v>0.09880239520958084</v>
+        <v>0.2155963302752294</v>
       </c>
       <c r="BA8">
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BC8">
-        <v>0.0576271186440678</v>
+        <v>0</v>
       </c>
       <c r="BD8">
-        <v>0.1458333333333333</v>
+        <v>0</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="BF8">
-        <v>0.1282051282051282</v>
+        <v>0</v>
       </c>
       <c r="BG8">
-        <v>0.1360294117647059</v>
+        <v>0</v>
       </c>
       <c r="BH8">
-        <v>0</v>
+        <v>0.2396694214876033</v>
       </c>
       <c r="BI8">
-        <v>0</v>
+        <v>0.319327731092437</v>
       </c>
       <c r="BJ8">
-        <v>0</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="BK8">
         <v>0</v>
@@ -2559,198 +2511,192 @@
         <v>0</v>
       </c>
       <c r="BM8">
-        <v>0</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="BN8">
-        <v>0.05529953917050692</v>
+        <v>0</v>
       </c>
       <c r="BO8">
-        <v>0</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="BP8">
-        <v>0.1134020618556701</v>
+        <v>0</v>
       </c>
       <c r="BQ8">
-        <v>0.1413043478260869</v>
+        <v>0.3</v>
       </c>
       <c r="BR8">
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="BT8">
         <v>0</v>
       </c>
       <c r="BU8">
-        <v>0.2338709677419355</v>
+        <v>0</v>
       </c>
       <c r="BV8">
         <v>0</v>
       </c>
       <c r="BW8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX8">
-        <v>0</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="BY8">
         <v>0</v>
       </c>
-      <c r="BZ8">
-        <v>0</v>
-      </c>
-      <c r="CA8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:79">
+    <row r="9" spans="1:77">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I9">
-        <v>0.02472127968977218</v>
+        <v>0.02180418982471142</v>
       </c>
       <c r="J9">
-        <v>0.02481389578163772</v>
+        <v>0.0226283724978242</v>
       </c>
       <c r="K9">
-        <v>0.02424242424242424</v>
+        <v>0.01616524472384374</v>
       </c>
       <c r="L9">
-        <v>0.0269959793222286</v>
+        <v>0.02523364485981308</v>
       </c>
       <c r="M9">
-        <v>0.02626865671641791</v>
+        <v>0.02070293692826192</v>
       </c>
       <c r="N9">
-        <v>0.03177458033573141</v>
+        <v>0.02204408817635271</v>
       </c>
       <c r="O9">
-        <v>0.007224563515954244</v>
+        <v>0.01012658227848101</v>
       </c>
       <c r="P9">
-        <v>0.01833740831295844</v>
+        <v>0.02532928064842958</v>
       </c>
       <c r="Q9">
-        <v>0.02446877012234385</v>
+        <v>0.007168458781362007</v>
       </c>
       <c r="R9">
-        <v>0.01521438450899032</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="S9">
-        <v>0.03145574250182882</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.02742772424017791</v>
+        <v>0.02332535885167464</v>
       </c>
       <c r="U9">
-        <v>0.03420074349442379</v>
+        <v>0.02530120481927711</v>
       </c>
       <c r="V9">
-        <v>0.03258339798293251</v>
+        <v>0.02776064157927205</v>
       </c>
       <c r="W9">
-        <v>0.02599512591389114</v>
+        <v>0.01006711409395973</v>
       </c>
       <c r="X9">
-        <v>0.01876019575856444</v>
+        <v>0.02753525856279382</v>
       </c>
       <c r="Y9">
-        <v>0.02272727272727273</v>
+        <v>0.01170798898071625</v>
       </c>
       <c r="Z9">
-        <v>0.04502164502164503</v>
+        <v>0.02729885057471265</v>
       </c>
       <c r="AA9">
-        <v>0.04179728317659352</v>
+        <v>0.03440702781844802</v>
       </c>
       <c r="AB9">
-        <v>0.01359832635983264</v>
+        <v>0.03609022556390978</v>
       </c>
       <c r="AC9">
-        <v>0.03789473684210527</v>
+        <v>0.02115987460815047</v>
       </c>
       <c r="AD9">
-        <v>0.04334038054968287</v>
+        <v>0.0164576802507837</v>
       </c>
       <c r="AE9">
-        <v>0.03597883597883598</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.03602484472049689</v>
+        <v>0.03190519598906107</v>
       </c>
       <c r="AG9">
-        <v>0.03105590062111801</v>
+        <v>0.05315947843530592</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>0.04214963119072708</v>
       </c>
       <c r="AI9">
-        <v>0.06363636363636363</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.03452855245683931</v>
+        <v>0.0734632683658171</v>
       </c>
       <c r="AK9">
-        <v>0.03409090909090909</v>
+        <v>0.03410852713178295</v>
       </c>
       <c r="AL9">
-        <v>0.02749638205499276</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="AN9">
-        <v>0.02903225806451613</v>
+        <v>0.08533333333333333</v>
       </c>
       <c r="AO9">
-        <v>0.05392156862745098</v>
+        <v>0.09141274238227147</v>
       </c>
       <c r="AP9">
-        <v>0.07588532883642496</v>
+        <v>0.09770114942528736</v>
       </c>
       <c r="AQ9">
-        <v>0.0288135593220339</v>
+        <v>0</v>
       </c>
       <c r="AR9">
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.02857142857142857</v>
+        <v>0.09967845659163987</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>0.08441558441558442</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="AW9">
-        <v>0.08783783783783784</v>
+        <v>0.1434108527131783</v>
       </c>
       <c r="AX9">
         <v>0</v>
       </c>
       <c r="AY9">
-        <v>0.07629427792915532</v>
+        <v>0</v>
       </c>
       <c r="AZ9">
-        <v>0.1047904191616766</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="BA9">
         <v>0</v>
@@ -2759,28 +2705,28 @@
         <v>0</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="BD9">
-        <v>0.03819444444444445</v>
+        <v>0</v>
       </c>
       <c r="BE9">
-        <v>0.05090909090909091</v>
+        <v>0</v>
       </c>
       <c r="BF9">
         <v>0</v>
       </c>
       <c r="BG9">
-        <v>0</v>
+        <v>0.1742424242424243</v>
       </c>
       <c r="BH9">
         <v>0</v>
       </c>
       <c r="BI9">
-        <v>0.1270491803278689</v>
+        <v>0</v>
       </c>
       <c r="BJ9">
-        <v>0.08641975308641975</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="BK9">
         <v>0</v>
@@ -2789,16 +2735,16 @@
         <v>0</v>
       </c>
       <c r="BM9">
-        <v>0.09009009009009009</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="BN9">
         <v>0</v>
       </c>
       <c r="BO9">
-        <v>0.07729468599033816</v>
+        <v>0</v>
       </c>
       <c r="BP9">
-        <v>0</v>
+        <v>0.296875</v>
       </c>
       <c r="BQ9">
         <v>0</v>
@@ -2827,118 +2773,112 @@
       <c r="BY9">
         <v>0</v>
       </c>
-      <c r="BZ9">
-        <v>0</v>
-      </c>
-      <c r="CA9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:79">
+    <row r="10" spans="1:77">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I10">
-        <v>0.02472127968977218</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J10">
-        <v>0.02630272952853598</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K10">
-        <v>0.02373737373737374</v>
+        <v>0.02155365963179165</v>
       </c>
       <c r="L10">
-        <v>0.02642159678345778</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="M10">
-        <v>0.01552238805970149</v>
+        <v>0.01877708233028406</v>
       </c>
       <c r="N10">
-        <v>0.02937649880095923</v>
+        <v>0.02354709418837675</v>
       </c>
       <c r="O10">
-        <v>0.02889825406381698</v>
+        <v>0.02481012658227848</v>
       </c>
       <c r="P10">
-        <v>0.0226161369193154</v>
+        <v>0.02634245187436677</v>
       </c>
       <c r="Q10">
-        <v>0.03219575016097875</v>
+        <v>0.0261136712749616</v>
       </c>
       <c r="R10">
-        <v>0.02420470262793914</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="S10">
-        <v>0.03291880029261156</v>
+        <v>0.01755412521942656</v>
       </c>
       <c r="T10">
-        <v>0.02965159377316531</v>
+        <v>0.01854066985645933</v>
       </c>
       <c r="U10">
-        <v>0.03866171003717472</v>
+        <v>0.01626506024096385</v>
       </c>
       <c r="V10">
-        <v>0.03335919317300233</v>
+        <v>0.0283775447254781</v>
       </c>
       <c r="W10">
-        <v>0.03574329813160033</v>
+        <v>0.02348993288590604</v>
       </c>
       <c r="X10">
-        <v>0.02446982055464927</v>
+        <v>0.02955003357958361</v>
       </c>
       <c r="Y10">
-        <v>0.02441077441077441</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="Z10">
-        <v>0.02077922077922078</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>0.03074670571010249</v>
       </c>
       <c r="AB10">
-        <v>0.04288702928870293</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="AC10">
-        <v>0.04</v>
+        <v>0.03369905956112853</v>
       </c>
       <c r="AD10">
-        <v>0.03488372093023256</v>
+        <v>0.03213166144200627</v>
       </c>
       <c r="AE10">
-        <v>0.04444444444444445</v>
+        <v>0.03637833468067906</v>
       </c>
       <c r="AF10">
-        <v>0.02857142857142857</v>
+        <v>0.02187784867821331</v>
       </c>
       <c r="AG10">
-        <v>0.03478260869565217</v>
+        <v>0.02507522567703109</v>
       </c>
       <c r="AH10">
-        <v>0.05025773195876289</v>
+        <v>0.02107481559536354</v>
       </c>
       <c r="AI10">
-        <v>0.03246753246753246</v>
+        <v>0.05285714285714286</v>
       </c>
       <c r="AJ10">
-        <v>0.0451527224435591</v>
+        <v>0.03148425787106447</v>
       </c>
       <c r="AK10">
-        <v>0.05113636363636364</v>
+        <v>0.03565891472868217</v>
       </c>
       <c r="AL10">
-        <v>0.04486251808972504</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -2950,22 +2890,22 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="AR10">
-        <v>0.04864864864864865</v>
+        <v>0</v>
       </c>
       <c r="AS10">
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>0.06142034548944338</v>
+        <v>0</v>
       </c>
       <c r="AU10">
-        <v>0.04247104247104247</v>
+        <v>0</v>
       </c>
       <c r="AV10">
         <v>0</v>
@@ -2974,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="AY10">
         <v>0</v>
@@ -2983,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="BB10">
         <v>0</v>
@@ -2992,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="BE10">
         <v>0</v>
@@ -3022,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="BN10">
-        <v>0</v>
+        <v>0.3768115942028986</v>
       </c>
       <c r="BO10">
         <v>0</v>
@@ -3057,112 +2997,106 @@
       <c r="BY10">
         <v>0</v>
       </c>
-      <c r="BZ10">
-        <v>0</v>
-      </c>
-      <c r="CA10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:79">
+    <row r="11" spans="1:77">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I11">
-        <v>0.02520601066408143</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J11">
-        <v>0.02630272952853598</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K11">
-        <v>0.02575757575757576</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L11">
-        <v>0.0269959793222286</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="M11">
-        <v>0.0208955223880597</v>
+        <v>0.0235917188252287</v>
       </c>
       <c r="N11">
-        <v>0.02937649880095923</v>
+        <v>0.02354709418837675</v>
       </c>
       <c r="O11">
-        <v>0.02889825406381698</v>
+        <v>0.02582278481012658</v>
       </c>
       <c r="P11">
-        <v>0.02811735941320294</v>
+        <v>0.02330293819655522</v>
       </c>
       <c r="Q11">
-        <v>0.03219575016097875</v>
+        <v>0.02457757296466974</v>
       </c>
       <c r="R11">
-        <v>0.02627939142461964</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="S11">
-        <v>0.03145574250182882</v>
+        <v>0.02399063779988297</v>
       </c>
       <c r="T11">
-        <v>0.02446256486286138</v>
+        <v>0.02691387559808613</v>
       </c>
       <c r="U11">
-        <v>0.03345724907063197</v>
+        <v>0.02349397590361446</v>
       </c>
       <c r="V11">
-        <v>0.03103180760279286</v>
+        <v>0.02590993214065392</v>
       </c>
       <c r="W11">
-        <v>0.03330625507717303</v>
+        <v>0.02953020134228188</v>
       </c>
       <c r="X11">
-        <v>0.02773246329526917</v>
+        <v>0.01947615849563466</v>
       </c>
       <c r="Y11">
-        <v>0.03282828282828283</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.02227011494252874</v>
       </c>
       <c r="AA11">
-        <v>0.02298850574712644</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04602510460251046</v>
+        <v>0.02406015037593985</v>
       </c>
       <c r="AC11">
-        <v>0.03789473684210527</v>
+        <v>0.03369905956112853</v>
       </c>
       <c r="AD11">
-        <v>0.02959830866807611</v>
+        <v>0.0219435736677116</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.0307194826192401</v>
       </c>
       <c r="AF11">
-        <v>0.05217391304347826</v>
+        <v>0.03190519598906107</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>0.02607823470411234</v>
       </c>
       <c r="AH11">
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.05285714285714286</v>
       </c>
       <c r="AJ11">
-        <v>0.04913678618857902</v>
+        <v>0.04047976011994003</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -3171,37 +3105,37 @@
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>0.04608294930875576</v>
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>0.05161290322580645</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>0.0392156862745098</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="AQ11">
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="AS11">
         <v>0</v>
       </c>
       <c r="AT11">
-        <v>0.05950095969289827</v>
+        <v>0</v>
       </c>
       <c r="AU11">
-        <v>0.0444015444015444</v>
+        <v>0</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>0.1197183098591549</v>
       </c>
       <c r="AW11">
-        <v>0.06081081081081081</v>
+        <v>0</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -3249,10 +3183,10 @@
         <v>0</v>
       </c>
       <c r="BM11">
-        <v>0.1306306306306306</v>
+        <v>0</v>
       </c>
       <c r="BN11">
-        <v>0.119815668202765</v>
+        <v>0</v>
       </c>
       <c r="BO11">
         <v>0</v>
@@ -3276,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="BV11">
-        <v>0.3205128205128205</v>
+        <v>0</v>
       </c>
       <c r="BW11">
         <v>0</v>
@@ -3287,118 +3221,112 @@
       <c r="BY11">
         <v>0</v>
       </c>
-      <c r="BZ11">
-        <v>0</v>
-      </c>
-      <c r="CA11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:79">
+    <row r="12" spans="1:77">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
         <v>89</v>
       </c>
-      <c r="C12" t="s">
-        <v>91</v>
-      </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I12">
-        <v>0.02520601066408143</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J12">
-        <v>0.02630272952853598</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K12">
-        <v>0.02575757575757576</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L12">
-        <v>0.02814474439977025</v>
+        <v>0.02242990654205607</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N12">
-        <v>0.02458033573141487</v>
+        <v>0.02454909819639279</v>
       </c>
       <c r="O12">
-        <v>0.02889825406381698</v>
+        <v>0.02278481012658228</v>
       </c>
       <c r="P12">
-        <v>0.03056234718826406</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="Q12">
-        <v>0.03026400515132003</v>
+        <v>0.02560163850486431</v>
       </c>
       <c r="R12">
-        <v>0.0318118948824343</v>
+        <v>0.02685714285714286</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.02574605032182563</v>
       </c>
       <c r="T12">
-        <v>0.02594514455151965</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="U12">
-        <v>0.02899628252788104</v>
+        <v>0.02469879518072289</v>
       </c>
       <c r="V12">
-        <v>0.03103180760279286</v>
+        <v>0.01603948180135719</v>
       </c>
       <c r="W12">
-        <v>0.03574329813160033</v>
+        <v>0.02885906040268457</v>
       </c>
       <c r="X12">
-        <v>0.03099510603588907</v>
+        <v>0.02686366689053056</v>
       </c>
       <c r="Y12">
-        <v>0.03535353535353535</v>
+        <v>0.02410468319559229</v>
       </c>
       <c r="Z12">
-        <v>0.02510822510822511</v>
+        <v>0.03304597701149425</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>0.02708638360175696</v>
       </c>
       <c r="AB12">
-        <v>0.04707112970711297</v>
+        <v>0.02330827067669173</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>0.02351097178683386</v>
       </c>
       <c r="AD12">
-        <v>0.03911205073995772</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="AE12">
-        <v>0.0455026455026455</v>
+        <v>0.03152789005658852</v>
       </c>
       <c r="AF12">
-        <v>0.04099378881987577</v>
+        <v>0.03281677301731997</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>0.03410230692076228</v>
       </c>
       <c r="AH12">
-        <v>0.04639175257731959</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>0.03896103896103896</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <v>0.0451527224435591</v>
+        <v>0</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>0.04341085271317829</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>0.08296943231441048</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -3413,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="AQ12">
-        <v>0.05254237288135593</v>
+        <v>0.08544303797468354</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>0.09177215189873418</v>
       </c>
       <c r="AS12">
         <v>0</v>
@@ -3428,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="AV12">
-        <v>0.06464646464646465</v>
+        <v>0</v>
       </c>
       <c r="AW12">
         <v>0</v>
       </c>
       <c r="AX12">
-        <v>0</v>
+        <v>0.0992063492063492</v>
       </c>
       <c r="AY12">
         <v>0</v>
@@ -3470,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>0.1152263374485597</v>
+        <v>0</v>
       </c>
       <c r="BK12">
         <v>0</v>
@@ -3517,118 +3445,112 @@
       <c r="BY12">
         <v>0</v>
       </c>
-      <c r="BZ12">
-        <v>0</v>
-      </c>
-      <c r="CA12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:79">
+    <row r="13" spans="1:77">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I13">
-        <v>0.02472127968977218</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J13">
-        <v>0.02630272952853598</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K13">
-        <v>0.02626262626262626</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L13">
-        <v>0.02814474439977025</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="M13">
-        <v>0.01850746268656716</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N13">
-        <v>0.02817745803357314</v>
+        <v>0.02454909819639279</v>
       </c>
       <c r="O13">
-        <v>0.02769416014449127</v>
+        <v>0.02430379746835443</v>
       </c>
       <c r="P13">
-        <v>0.03056234718826406</v>
+        <v>0.02330293819655522</v>
       </c>
       <c r="Q13">
-        <v>0.0309079201545396</v>
+        <v>0.02406554019457245</v>
       </c>
       <c r="R13">
-        <v>0.02835408022130014</v>
+        <v>0.02457142857142857</v>
       </c>
       <c r="S13">
-        <v>0.03218727139722019</v>
+        <v>0.02574605032182563</v>
       </c>
       <c r="T13">
-        <v>0.02223869532987398</v>
+        <v>0.02691387559808613</v>
       </c>
       <c r="U13">
-        <v>0.03345724907063197</v>
+        <v>0.02349397590361446</v>
       </c>
       <c r="V13">
-        <v>0.03335919317300233</v>
+        <v>0.01850709438618137</v>
       </c>
       <c r="W13">
-        <v>0.03249390739236393</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>0.02854812398042414</v>
+        <v>0.02484889187374077</v>
       </c>
       <c r="Y13">
-        <v>0.02693602693602693</v>
+        <v>0.02203856749311295</v>
       </c>
       <c r="Z13">
-        <v>0.02424242424242424</v>
+        <v>0.02945402298850575</v>
       </c>
       <c r="AA13">
-        <v>0.0303030303030303</v>
+        <v>0.02781844802342606</v>
       </c>
       <c r="AB13">
-        <v>0.03556485355648536</v>
+        <v>0.02706766917293233</v>
       </c>
       <c r="AC13">
-        <v>0.03894736842105263</v>
+        <v>0.03134796238244514</v>
       </c>
       <c r="AD13">
-        <v>0.04439746300211417</v>
+        <v>0.0329153605015674</v>
       </c>
       <c r="AE13">
-        <v>0.0380952380952381</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>0.03229813664596273</v>
+        <v>0.03190519598906107</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>0.03309929789368105</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>0.03582718651211802</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>0.04428571428571428</v>
       </c>
       <c r="AJ13">
-        <v>0.05179282868525897</v>
+        <v>0</v>
       </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>0.03328509406657019</v>
+        <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
@@ -3643,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="AQ13">
-        <v>0.04067796610169491</v>
+        <v>0.09177215189873418</v>
       </c>
       <c r="AR13">
-        <v>0.05945945945945946</v>
+        <v>0</v>
       </c>
       <c r="AS13">
         <v>0</v>
@@ -3661,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="AW13">
-        <v>0.05630630630630631</v>
+        <v>0</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -3673,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>0.08181818181818182</v>
+        <v>0</v>
       </c>
       <c r="BB13">
         <v>0</v>
@@ -3703,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="BK13">
-        <v>0.1570247933884298</v>
+        <v>0</v>
       </c>
       <c r="BL13">
         <v>0</v>
@@ -3747,339 +3669,327 @@
       <c r="BY13">
         <v>0</v>
       </c>
-      <c r="BZ13">
-        <v>0</v>
-      </c>
-      <c r="CA13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:79">
+    <row r="14" spans="1:77">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I14">
-        <v>0.02375181774115366</v>
+        <v>0.02094912355707567</v>
       </c>
       <c r="J14">
-        <v>0.02332506203473945</v>
+        <v>0.0226283724978242</v>
       </c>
       <c r="K14">
-        <v>0.01919191919191919</v>
+        <v>0.01841041760215537</v>
       </c>
       <c r="L14">
-        <v>0.006892590465249857</v>
+        <v>0.02149532710280374</v>
       </c>
       <c r="M14">
-        <v>0.01552238805970149</v>
+        <v>0.008666345690900338</v>
       </c>
       <c r="N14">
-        <v>0.026378896882494</v>
+        <v>0.008517034068136272</v>
       </c>
       <c r="O14">
-        <v>0.01324503311258278</v>
+        <v>0.02126582278481013</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.02735562310030395</v>
       </c>
       <c r="Q14">
-        <v>0.02189311010946555</v>
+        <v>0.002560163850486431</v>
       </c>
       <c r="R14">
-        <v>0.01106500691562932</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>0.03657644476956839</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>0.03928836174944404</v>
+        <v>0.01555023923444976</v>
       </c>
       <c r="U14">
-        <v>0.03866171003717472</v>
+        <v>0.03192771084337349</v>
       </c>
       <c r="V14">
-        <v>0.01396431342125679</v>
+        <v>0.02961135101789019</v>
       </c>
       <c r="W14">
-        <v>0.01624695369618196</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>0.01549755301794454</v>
+        <v>0.02014775016789792</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>0.01721763085399449</v>
       </c>
       <c r="Z14">
-        <v>0.04415584415584416</v>
+        <v>0.002155172413793103</v>
       </c>
       <c r="AA14">
-        <v>0.04179728317659352</v>
+        <v>0.03294289897510981</v>
       </c>
       <c r="AB14">
-        <v>0.008368200836820083</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>0.0054858934169279</v>
       </c>
       <c r="AD14">
-        <v>0.02959830866807611</v>
+        <v>0.006269592476489028</v>
       </c>
       <c r="AE14">
-        <v>0.01375661375661376</v>
+        <v>0.02182700080840744</v>
       </c>
       <c r="AF14">
-        <v>0.004968944099378882</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>0.03975155279503106</v>
+        <v>0.05015045135406219</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>0.03582718651211802</v>
       </c>
       <c r="AI14">
-        <v>0.03896103896103896</v>
+        <v>0.04</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>0.0239880059970015</v>
       </c>
       <c r="AK14">
-        <v>0.05965909090909091</v>
+        <v>0.05426356589147287</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="AM14">
-        <v>0.03686635944700461</v>
+        <v>0.08851674641148326</v>
       </c>
       <c r="AN14">
-        <v>0.01612903225806452</v>
+        <v>0.1173333333333333</v>
       </c>
       <c r="AO14">
-        <v>0.03431372549019608</v>
+        <v>0.1412742382271468</v>
       </c>
       <c r="AP14">
-        <v>0.05227655986509275</v>
+        <v>0</v>
       </c>
       <c r="AQ14">
-        <v>0.08135593220338982</v>
+        <v>0</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>0.09810126582278481</v>
       </c>
       <c r="AS14">
-        <v>0.06666666666666667</v>
+        <v>0.04180064308681672</v>
       </c>
       <c r="AT14">
-        <v>0.01727447216890595</v>
+        <v>0.1396103896103896</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>0.1317567567567567</v>
       </c>
       <c r="AV14">
-        <v>0.07474747474747474</v>
+        <v>0.1161971830985915</v>
       </c>
       <c r="AW14">
-        <v>0.06531531531531531</v>
+        <v>0.1821705426356589</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="AY14">
-        <v>0.02997275204359673</v>
+        <v>0.1652892561983471</v>
       </c>
       <c r="AZ14">
-        <v>0.1287425149700599</v>
+        <v>0.1009174311926606</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>0.04787234042553191</v>
       </c>
       <c r="BB14">
-        <v>0.006230529595015576</v>
+        <v>0.2057142857142857</v>
       </c>
       <c r="BC14">
-        <v>0.003389830508474576</v>
+        <v>0.1402439024390244</v>
       </c>
       <c r="BD14">
-        <v>0.1145833333333333</v>
+        <v>0</v>
       </c>
       <c r="BE14">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="BF14">
-        <v>0.0989010989010989</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="BG14">
-        <v>0.1654411764705882</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="BH14">
-        <v>0.1518518518518518</v>
+        <v>0</v>
       </c>
       <c r="BI14">
-        <v>0.1024590163934426</v>
+        <v>0.1596638655462185</v>
       </c>
       <c r="BJ14">
-        <v>0.0205761316872428</v>
+        <v>0.3619047619047619</v>
       </c>
       <c r="BK14">
         <v>0</v>
       </c>
       <c r="BL14">
-        <v>0.02654867256637168</v>
+        <v>0</v>
       </c>
       <c r="BM14">
-        <v>0.06306306306306306</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="BN14">
-        <v>0.07834101382488479</v>
+        <v>0</v>
       </c>
       <c r="BO14">
-        <v>0.1739130434782609</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="BP14">
-        <v>0.0154639175257732</v>
+        <v>0.375</v>
       </c>
       <c r="BQ14">
-        <v>0.25</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="BR14">
-        <v>0.08670520231213873</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="BS14">
         <v>0</v>
       </c>
       <c r="BT14">
-        <v>0.1742424242424243</v>
+        <v>0</v>
       </c>
       <c r="BU14">
-        <v>0.3145161290322581</v>
+        <v>0</v>
       </c>
       <c r="BV14">
-        <v>0.08974358974358974</v>
+        <v>0</v>
       </c>
       <c r="BW14">
         <v>0</v>
       </c>
       <c r="BX14">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="BY14">
         <v>0</v>
       </c>
-      <c r="BZ14">
-        <v>0</v>
-      </c>
-      <c r="CA14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:79">
+    <row r="15" spans="1:77">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I15">
-        <v>0.02520601066408143</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J15">
-        <v>0.02630272952853598</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K15">
-        <v>0.02575757575757576</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L15">
-        <v>0.02584721424468696</v>
+        <v>0.02196261682242991</v>
       </c>
       <c r="M15">
-        <v>0.02149253731343283</v>
+        <v>0.02311025517573423</v>
       </c>
       <c r="N15">
-        <v>0.02757793764988009</v>
+        <v>0.02254509018036072</v>
       </c>
       <c r="O15">
-        <v>0.02889825406381698</v>
+        <v>0.02481012658227848</v>
       </c>
       <c r="P15">
-        <v>0.02995110024449878</v>
+        <v>0.02532928064842958</v>
       </c>
       <c r="Q15">
-        <v>0.03026400515132003</v>
+        <v>0.0261136712749616</v>
       </c>
       <c r="R15">
-        <v>0.02835408022130014</v>
+        <v>0.02</v>
       </c>
       <c r="S15">
-        <v>0.03072421360643745</v>
+        <v>0.0216500877706261</v>
       </c>
       <c r="T15">
-        <v>0.02446256486286138</v>
+        <v>0.02751196172248804</v>
       </c>
       <c r="U15">
-        <v>0.03717472118959108</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="V15">
-        <v>0.0287044220325834</v>
+        <v>0.02714373843306601</v>
       </c>
       <c r="W15">
-        <v>0.03249390739236393</v>
+        <v>0.02147651006711409</v>
       </c>
       <c r="X15">
-        <v>0.03099510603588907</v>
+        <v>0.02887844190732035</v>
       </c>
       <c r="Y15">
-        <v>0.02946127946127946</v>
+        <v>0.02617079889807163</v>
       </c>
       <c r="Z15">
-        <v>0.02424242424242424</v>
+        <v>0.03017241379310345</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.04079497907949791</v>
+        <v>0.01954887218045113</v>
       </c>
       <c r="AC15">
-        <v>0.02842105263157895</v>
+        <v>0.03056426332288401</v>
       </c>
       <c r="AD15">
-        <v>0.03594080338266385</v>
+        <v>0.03213166144200627</v>
       </c>
       <c r="AE15">
-        <v>0.02645502645502645</v>
+        <v>0.0274858528698464</v>
       </c>
       <c r="AF15">
-        <v>0.05341614906832298</v>
+        <v>0.03281677301731997</v>
       </c>
       <c r="AG15">
-        <v>0.03602484472049689</v>
+        <v>0.02808425275827483</v>
       </c>
       <c r="AH15">
-        <v>0.05670103092783505</v>
+        <v>0.02845100105374078</v>
       </c>
       <c r="AI15">
-        <v>0.02857142857142857</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="AJ15">
-        <v>0.03187250996015936</v>
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>0.04545454545454546</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -4088,16 +3998,16 @@
         <v>0</v>
       </c>
       <c r="AN15">
-        <v>0.04838709677419355</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>0.08033240997229917</v>
       </c>
       <c r="AP15">
         <v>0</v>
       </c>
       <c r="AQ15">
-        <v>0.03898305084745763</v>
+        <v>0.09810126582278481</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4118,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="AX15">
-        <v>0.08288770053475936</v>
+        <v>0</v>
       </c>
       <c r="AY15">
         <v>0</v>
@@ -4163,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="BM15">
-        <v>0.0945945945945946</v>
+        <v>0</v>
       </c>
       <c r="BN15">
         <v>0</v>
@@ -4181,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>0.1884057971014493</v>
+        <v>0</v>
       </c>
       <c r="BT15">
         <v>0</v>
@@ -4201,115 +4111,109 @@
       <c r="BY15">
         <v>0</v>
       </c>
-      <c r="BZ15">
-        <v>0</v>
-      </c>
-      <c r="CA15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:79">
+    <row r="16" spans="1:77">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I16">
-        <v>0.02472127968977218</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J16">
-        <v>0.02630272952853598</v>
+        <v>0.0226283724978242</v>
       </c>
       <c r="K16">
-        <v>0.02626262626262626</v>
+        <v>0.02379883251010328</v>
       </c>
       <c r="L16">
-        <v>0.02814474439977025</v>
+        <v>0.02196261682242991</v>
       </c>
       <c r="M16">
-        <v>0.02686567164179104</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N16">
-        <v>0.02757793764988009</v>
+        <v>0.0250501002004008</v>
       </c>
       <c r="O16">
-        <v>0.02829620710415412</v>
+        <v>0.01924050632911392</v>
       </c>
       <c r="P16">
-        <v>0.03056234718826406</v>
+        <v>0.01975683890577508</v>
       </c>
       <c r="Q16">
-        <v>0.02640051513200257</v>
+        <v>0.02457757296466974</v>
       </c>
       <c r="R16">
-        <v>0.03319502074688797</v>
+        <v>0.02571428571428571</v>
       </c>
       <c r="S16">
-        <v>0.02487198244330651</v>
+        <v>0.02867173785839672</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>0.02212918660287081</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>0.02469879518072289</v>
       </c>
       <c r="V16">
-        <v>0.03335919317300233</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>0.03574329813160033</v>
+        <v>0.02953020134228188</v>
       </c>
       <c r="X16">
-        <v>0.03181076672104405</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>0.03168044077134986</v>
       </c>
       <c r="Z16">
-        <v>0.03203463203463203</v>
+        <v>0.03089080459770115</v>
       </c>
       <c r="AA16">
-        <v>0.03657262277951933</v>
+        <v>0.02489019033674963</v>
       </c>
       <c r="AB16">
-        <v>0.03451882845188285</v>
+        <v>0.02706766917293233</v>
       </c>
       <c r="AC16">
-        <v>0.03789473684210527</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>0.04439746300211417</v>
+        <v>0.0329153605015674</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>0.02667744543249798</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>0.03190519598906107</v>
       </c>
       <c r="AG16">
-        <v>0.04720496894409938</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>0.03371970495258166</v>
       </c>
       <c r="AI16">
         <v>0</v>
       </c>
       <c r="AJ16">
-        <v>0.05312084993359894</v>
+        <v>0</v>
       </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>0.08733624454148471</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -4428,97 +4332,91 @@
       <c r="BY16">
         <v>0</v>
       </c>
-      <c r="BZ16">
-        <v>0</v>
-      </c>
-      <c r="CA16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:79">
+    <row r="17" spans="1:77">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I17">
-        <v>0.02520601066408143</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J17">
-        <v>0.02630272952853598</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K17">
-        <v>0.02575757575757576</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L17">
-        <v>0.02814474439977025</v>
+        <v>0.02289719626168224</v>
       </c>
       <c r="M17">
-        <v>0.02149253731343283</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N17">
-        <v>0.02877697841726619</v>
+        <v>0.02404809619238477</v>
       </c>
       <c r="O17">
-        <v>0.02769416014449127</v>
+        <v>0.02329113924050633</v>
       </c>
       <c r="P17">
-        <v>0.03056234718826406</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="Q17">
-        <v>0.0283322601416613</v>
+        <v>0.02560163850486431</v>
       </c>
       <c r="R17">
-        <v>0.03250345781466114</v>
+        <v>0.02571428571428571</v>
       </c>
       <c r="S17">
-        <v>0.02999268471104609</v>
+        <v>0.02399063779988297</v>
       </c>
       <c r="T17">
-        <v>0.02816901408450704</v>
+        <v>0.0257177033492823</v>
       </c>
       <c r="U17">
-        <v>0.03345724907063197</v>
+        <v>0.01987951807228916</v>
       </c>
       <c r="V17">
-        <v>0.03258339798293251</v>
+        <v>0.01912399753238742</v>
       </c>
       <c r="W17">
-        <v>0.03493095044679122</v>
+        <v>0.0261744966442953</v>
       </c>
       <c r="X17">
-        <v>0.02202283849918434</v>
+        <v>0.02820685023505709</v>
       </c>
       <c r="Y17">
-        <v>0.02946127946127946</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="Z17">
-        <v>0.02683982683982684</v>
+        <v>0.02658045977011494</v>
       </c>
       <c r="AA17">
-        <v>0.02612330198537095</v>
+        <v>0.02928257686676428</v>
       </c>
       <c r="AB17">
-        <v>0.04079497907949791</v>
+        <v>0.02180451127819549</v>
       </c>
       <c r="AC17">
-        <v>0.03368421052631579</v>
+        <v>0.0274294670846395</v>
       </c>
       <c r="AD17">
-        <v>0.02959830866807611</v>
+        <v>0.02664576802507837</v>
       </c>
       <c r="AE17">
-        <v>0.02751322751322751</v>
+        <v>0.02910266774454325</v>
       </c>
       <c r="AF17">
-        <v>0.04968944099378882</v>
+        <v>0.03463992707383774</v>
       </c>
       <c r="AG17">
         <v>0</v>
@@ -4527,16 +4425,16 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0.04805194805194805</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>0.04382470119521913</v>
+        <v>0</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>0.04186046511627907</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>0.06550218340611354</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -4560,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="AT17">
-        <v>0.06525911708253358</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4572,10 +4470,10 @@
         <v>0</v>
       </c>
       <c r="AX17">
-        <v>0.06149732620320856</v>
+        <v>0</v>
       </c>
       <c r="AY17">
-        <v>0</v>
+        <v>0.1322314049586777</v>
       </c>
       <c r="AZ17">
         <v>0</v>
@@ -4587,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="BC17">
-        <v>0</v>
+        <v>0.1585365853658537</v>
       </c>
       <c r="BD17">
-        <v>0</v>
+        <v>0.1728395061728395</v>
       </c>
       <c r="BE17">
         <v>0</v>
@@ -4611,13 +4509,13 @@
         <v>0</v>
       </c>
       <c r="BK17">
-        <v>0.1239669421487603</v>
+        <v>0</v>
       </c>
       <c r="BL17">
-        <v>0.1283185840707965</v>
+        <v>0</v>
       </c>
       <c r="BM17">
-        <v>0.1081081081081081</v>
+        <v>0</v>
       </c>
       <c r="BN17">
         <v>0</v>
@@ -4655,118 +4553,112 @@
       <c r="BY17">
         <v>0</v>
       </c>
-      <c r="BZ17">
-        <v>0</v>
-      </c>
-      <c r="CA17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:79">
+    <row r="18" spans="1:77">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I18">
-        <v>0.02472127968977218</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J18">
-        <v>0.02630272952853598</v>
+        <v>0.0226283724978242</v>
       </c>
       <c r="K18">
-        <v>0.02626262626262626</v>
+        <v>0.02379883251010328</v>
       </c>
       <c r="L18">
-        <v>0.02814474439977025</v>
+        <v>0.02242990654205607</v>
       </c>
       <c r="M18">
-        <v>0.02686567164179104</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N18">
-        <v>0.02817745803357314</v>
+        <v>0.0250501002004008</v>
       </c>
       <c r="O18">
-        <v>0.02889825406381698</v>
+        <v>0.02075949367088608</v>
       </c>
       <c r="P18">
-        <v>0.03056234718826406</v>
+        <v>0.02178318135764944</v>
       </c>
       <c r="Q18">
-        <v>0.02962009014810045</v>
+        <v>0.02508960573476703</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>0.02571428571428571</v>
       </c>
       <c r="S18">
-        <v>0.02267739575713241</v>
+        <v>0.02340550029256875</v>
       </c>
       <c r="T18">
-        <v>0.03039288361749444</v>
+        <v>0.02751196172248804</v>
       </c>
       <c r="U18">
-        <v>0.02899628252788104</v>
+        <v>0.02228915662650603</v>
       </c>
       <c r="V18">
-        <v>0.03335919317300233</v>
+        <v>0.02590993214065392</v>
       </c>
       <c r="W18">
-        <v>0.03574329813160033</v>
+        <v>0.03154362416107383</v>
       </c>
       <c r="X18">
-        <v>0.02446982055464927</v>
+        <v>0.02552048354600403</v>
       </c>
       <c r="Y18">
-        <v>0.02861952861952862</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>0.0322108345534407</v>
       </c>
       <c r="AB18">
-        <v>0.0397489539748954</v>
+        <v>0.02932330827067669</v>
       </c>
       <c r="AC18">
-        <v>0.04421052631578947</v>
+        <v>0.02429467084639498</v>
       </c>
       <c r="AD18">
-        <v>0.03488372093023256</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>0.02667744543249798</v>
       </c>
       <c r="AF18">
-        <v>0.03975155279503106</v>
+        <v>0.03099361896080219</v>
       </c>
       <c r="AG18">
-        <v>0.04596273291925466</v>
+        <v>0</v>
       </c>
       <c r="AH18">
-        <v>0.04639175257731959</v>
+        <v>0</v>
       </c>
       <c r="AI18">
         <v>0</v>
       </c>
       <c r="AJ18">
-        <v>0.05312084993359894</v>
+        <v>0</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="AL18">
-        <v>0.05065123010130246</v>
+        <v>0</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>0.08373205741626795</v>
       </c>
       <c r="AN18">
         <v>0</v>
@@ -4882,106 +4774,100 @@
       <c r="BY18">
         <v>0</v>
       </c>
-      <c r="BZ18">
-        <v>0</v>
-      </c>
-      <c r="CA18">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:79">
+    <row r="19" spans="1:77">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I19">
-        <v>0.02472127968977218</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J19">
-        <v>0.02630272952853598</v>
+        <v>0.0226283724978242</v>
       </c>
       <c r="K19">
-        <v>0.02626262626262626</v>
+        <v>0.02379883251010328</v>
       </c>
       <c r="L19">
-        <v>0.02814474439977025</v>
+        <v>0.02196261682242991</v>
       </c>
       <c r="M19">
-        <v>0.02388059701492537</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N19">
-        <v>0.02517985611510791</v>
+        <v>0.0250501002004008</v>
       </c>
       <c r="O19">
-        <v>0.02829620710415412</v>
+        <v>0.02278481012658228</v>
       </c>
       <c r="P19">
-        <v>0.03056234718826406</v>
+        <v>0.01975683890577508</v>
       </c>
       <c r="Q19">
-        <v>0.02897617514488087</v>
+        <v>0.02457757296466974</v>
       </c>
       <c r="R19">
-        <v>0.03319502074688797</v>
+        <v>0.024</v>
       </c>
       <c r="S19">
-        <v>0.02852962692026335</v>
+        <v>0.02867173785839672</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>0.02212918660287081</v>
       </c>
       <c r="U19">
-        <v>0.02602230483271376</v>
+        <v>0.02168674698795181</v>
       </c>
       <c r="V19">
-        <v>0.02637703646237393</v>
+        <v>0.02344231955582974</v>
       </c>
       <c r="W19">
-        <v>0.03736799350121852</v>
+        <v>0.03087248322147651</v>
       </c>
       <c r="X19">
-        <v>0.03588907014681892</v>
+        <v>0.02350570852921424</v>
       </c>
       <c r="Y19">
-        <v>0.02777777777777778</v>
+        <v>0.02823691460055096</v>
       </c>
       <c r="Z19">
-        <v>0.03116883116883117</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>0.0314787701317716</v>
       </c>
       <c r="AB19">
-        <v>0.04497907949790795</v>
+        <v>0.02556390977443609</v>
       </c>
       <c r="AC19">
-        <v>0.03263157894736842</v>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <v>0.03911205073995772</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="AE19">
-        <v>0.04021164021164021</v>
+        <v>0.02586903799514955</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>0.04010938924339107</v>
       </c>
       <c r="AG19">
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>0.05283505154639175</v>
+        <v>0</v>
       </c>
       <c r="AI19">
-        <v>0.04155844155844156</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
         <v>0</v>
@@ -5109,109 +4995,103 @@
       <c r="BY19">
         <v>0</v>
       </c>
-      <c r="BZ19">
-        <v>0</v>
-      </c>
-      <c r="CA19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:79">
+    <row r="20" spans="1:77">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I20">
-        <v>0.02520601066408143</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J20">
-        <v>0.02630272952853598</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K20">
-        <v>0.02575757575757576</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L20">
-        <v>0.02757036186099943</v>
+        <v>0.02289719626168224</v>
       </c>
       <c r="M20">
-        <v>0.01791044776119403</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N20">
-        <v>0.02817745803357314</v>
+        <v>0.02404809619238477</v>
       </c>
       <c r="O20">
-        <v>0.02950030102347983</v>
+        <v>0.02379746835443038</v>
       </c>
       <c r="P20">
-        <v>0.03056234718826406</v>
+        <v>0.02330293819655522</v>
       </c>
       <c r="Q20">
-        <v>0.02897617514488087</v>
+        <v>0.02560163850486431</v>
       </c>
       <c r="R20">
-        <v>0.03042876901798064</v>
+        <v>0.02514285714285714</v>
       </c>
       <c r="S20">
-        <v>0.03072421360643745</v>
+        <v>0.02633118782913985</v>
       </c>
       <c r="T20">
-        <v>0.02372127501853225</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="U20">
-        <v>0.03420074349442379</v>
+        <v>0.02048192771084337</v>
       </c>
       <c r="V20">
-        <v>0.03180760279286268</v>
+        <v>0.02590993214065392</v>
       </c>
       <c r="W20">
-        <v>0.03493095044679122</v>
+        <v>0.02751677852348993</v>
       </c>
       <c r="X20">
-        <v>0.02854812398042414</v>
+        <v>0.02619207521826729</v>
       </c>
       <c r="Y20">
-        <v>0.03367003367003367</v>
+        <v>0.02410468319559229</v>
       </c>
       <c r="Z20">
-        <v>0.02857142857142857</v>
+        <v>0.03089080459770115</v>
       </c>
       <c r="AA20">
-        <v>0.02612330198537095</v>
+        <v>0.02635431918008785</v>
       </c>
       <c r="AB20">
-        <v>0.04079497907949791</v>
+        <v>0.02330827067669173</v>
       </c>
       <c r="AC20">
-        <v>0.03263157894736842</v>
+        <v>0.02351097178683386</v>
       </c>
       <c r="AD20">
-        <v>0.03911205073995772</v>
+        <v>0.02899686520376175</v>
       </c>
       <c r="AE20">
-        <v>0.03068783068783069</v>
+        <v>0.02586903799514955</v>
       </c>
       <c r="AF20">
-        <v>0.0422360248447205</v>
+        <v>0.02187784867821331</v>
       </c>
       <c r="AG20">
-        <v>0.03354037267080745</v>
+        <v>0.03811434302908726</v>
       </c>
       <c r="AH20">
-        <v>0.04896907216494845</v>
+        <v>0.03477344573234984</v>
       </c>
       <c r="AI20">
         <v>0</v>
       </c>
       <c r="AJ20">
-        <v>0.04780876494023904</v>
+        <v>0.04047976011994003</v>
       </c>
       <c r="AK20">
         <v>0</v>
@@ -5229,22 +5109,22 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>0.07183908045977011</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>0.08227848101265822</v>
       </c>
       <c r="AR20">
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>0.09003215434083602</v>
       </c>
       <c r="AT20">
-        <v>0.05374280230326296</v>
+        <v>0</v>
       </c>
       <c r="AU20">
-        <v>0</v>
+        <v>0.09797297297297297</v>
       </c>
       <c r="AV20">
         <v>0</v>
@@ -5274,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="BE20">
-        <v>0.09454545454545454</v>
+        <v>0</v>
       </c>
       <c r="BF20">
         <v>0</v>
@@ -5336,118 +5216,112 @@
       <c r="BY20">
         <v>0</v>
       </c>
-      <c r="BZ20">
-        <v>0</v>
-      </c>
-      <c r="CA20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:79">
+    <row r="21" spans="1:77">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I21">
-        <v>0.02423654871546292</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J21">
-        <v>0.02630272952853598</v>
+        <v>0.0226283724978242</v>
       </c>
       <c r="K21">
-        <v>0.02626262626262626</v>
+        <v>0.02379883251010328</v>
       </c>
       <c r="L21">
-        <v>0.02757036186099943</v>
+        <v>0.02196261682242991</v>
       </c>
       <c r="M21">
-        <v>0.02805970149253731</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N21">
-        <v>0.01918465227817746</v>
+        <v>0.02404809619238477</v>
       </c>
       <c r="O21">
-        <v>0.02709211318482842</v>
+        <v>0.02227848101265823</v>
       </c>
       <c r="P21">
-        <v>0.03117359413202934</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.0283322601416613</v>
+        <v>0.02099334357398874</v>
       </c>
       <c r="R21">
-        <v>0.0338865836791148</v>
+        <v>0.02571428571428571</v>
       </c>
       <c r="S21">
-        <v>0.02706656912948062</v>
+        <v>0.02867173785839672</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>0.02751196172248804</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>0.02289156626506024</v>
       </c>
       <c r="V21">
-        <v>0.03568657874321179</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>0.03330625507717303</v>
+        <v>0.02348993288590604</v>
       </c>
       <c r="X21">
-        <v>0.03425774877650897</v>
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0.0303030303030303</v>
+        <v>0.02801724137931035</v>
       </c>
       <c r="AA21">
-        <v>0.03448275862068965</v>
+        <v>0.03660322108345535</v>
       </c>
       <c r="AB21">
-        <v>0.04184100418410042</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.04105263157894737</v>
+        <v>0.02821316614420063</v>
       </c>
       <c r="AD21">
-        <v>0.03805496828752643</v>
+        <v>0.02899686520376175</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>0.03476151980598222</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>0.03646308113035551</v>
       </c>
       <c r="AG21">
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>0.05541237113402062</v>
+        <v>0.03582718651211802</v>
       </c>
       <c r="AI21">
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>0.05046480743691899</v>
+        <v>0</v>
       </c>
       <c r="AK21">
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>0.09170305676855896</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -5483,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="AX21">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="AY21">
         <v>0</v>
@@ -5566,124 +5440,118 @@
       <c r="BY21">
         <v>0</v>
       </c>
-      <c r="BZ21">
-        <v>0</v>
-      </c>
-      <c r="CA21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:79">
+    <row r="22" spans="1:77">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
         <v>99</v>
       </c>
-      <c r="E22" t="s">
-        <v>101</v>
-      </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I22">
-        <v>0.02520601066408143</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J22">
-        <v>0.02630272952853598</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K22">
-        <v>0.02575757575757576</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L22">
-        <v>0.02584721424468696</v>
+        <v>0.02242990654205607</v>
       </c>
       <c r="M22">
-        <v>0.02388059701492537</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N22">
-        <v>0.02937649880095923</v>
+        <v>0.02254509018036072</v>
       </c>
       <c r="O22">
-        <v>0.02829620710415412</v>
+        <v>0.02379746835443038</v>
       </c>
       <c r="P22">
-        <v>0.03056234718826406</v>
+        <v>0.02482269503546099</v>
       </c>
       <c r="Q22">
-        <v>0.0309079201545396</v>
+        <v>0.02560163850486431</v>
       </c>
       <c r="R22">
-        <v>0.0297372060857538</v>
+        <v>0.02628571428571429</v>
       </c>
       <c r="S22">
-        <v>0.01975128017556694</v>
+        <v>0.02282036278525454</v>
       </c>
       <c r="T22">
-        <v>0.02891030392883618</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="U22">
-        <v>0.03420074349442379</v>
+        <v>0.02048192771084337</v>
       </c>
       <c r="V22">
-        <v>0.03258339798293251</v>
+        <v>0.0215916101172116</v>
       </c>
       <c r="W22">
-        <v>0.03574329813160033</v>
+        <v>0.01946308724832215</v>
       </c>
       <c r="X22">
-        <v>0.02610114192495922</v>
+        <v>0.02887844190732035</v>
       </c>
       <c r="Y22">
-        <v>0.03451178451178451</v>
+        <v>0.02892561983471074</v>
       </c>
       <c r="Z22">
-        <v>0.0303030303030303</v>
+        <v>0.02945402298850575</v>
       </c>
       <c r="AA22">
-        <v>0.02925809822361547</v>
+        <v>0.01903367496339678</v>
       </c>
       <c r="AB22">
-        <v>0.03870292887029288</v>
+        <v>0.02781954887218045</v>
       </c>
       <c r="AC22">
-        <v>0.03052631578947368</v>
+        <v>0.03134796238244514</v>
       </c>
       <c r="AD22">
-        <v>0.040169133192389</v>
+        <v>0.02978056426332288</v>
       </c>
       <c r="AE22">
-        <v>0.03597883597883598</v>
+        <v>0.02910266774454325</v>
       </c>
       <c r="AF22">
-        <v>0.04472049689440994</v>
+        <v>0.02917046490428441</v>
       </c>
       <c r="AG22">
-        <v>0.03850931677018633</v>
+        <v>0.03309929789368105</v>
       </c>
       <c r="AH22">
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>0.03857142857142857</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>0.04497751124437781</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>0.04806201550387597</v>
       </c>
       <c r="AL22">
-        <v>0.03473227206946455</v>
+        <v>0</v>
       </c>
       <c r="AM22">
-        <v>0.03840245775729647</v>
+        <v>0</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>0.07466666666666667</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -5698,10 +5566,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0.04952380952380953</v>
+        <v>0</v>
       </c>
       <c r="AT22">
-        <v>0.05758157389635317</v>
+        <v>0</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5713,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="AX22">
-        <v>0.08823529411764706</v>
+        <v>0</v>
       </c>
       <c r="AY22">
         <v>0</v>
@@ -5728,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="BC22">
-        <v>0</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="BD22">
         <v>0</v>
@@ -5796,199 +5664,193 @@
       <c r="BY22">
         <v>0</v>
       </c>
-      <c r="BZ22">
-        <v>0</v>
-      </c>
-      <c r="CA22">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:79">
+    <row r="23" spans="1:77">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I23">
-        <v>0.02472127968977218</v>
+        <v>0.0205215904232578</v>
       </c>
       <c r="J23">
-        <v>0.02332506203473945</v>
+        <v>0.0226283724978242</v>
       </c>
       <c r="K23">
-        <v>0.0202020202020202</v>
+        <v>0.01796138302649304</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.01121495327102804</v>
       </c>
       <c r="M23">
-        <v>0.02985074626865672</v>
+        <v>0.01203659123736158</v>
       </c>
       <c r="N23">
-        <v>0.007793764988009592</v>
+        <v>0.01753507014028056</v>
       </c>
       <c r="O23">
-        <v>0.01926550270921132</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="P23">
-        <v>0.01100244498777506</v>
+        <v>0.02735562310030395</v>
       </c>
       <c r="Q23">
-        <v>0.02897617514488087</v>
+        <v>0.02508960573476703</v>
       </c>
       <c r="R23">
-        <v>0.006224066390041493</v>
+        <v>0.03028571428571429</v>
       </c>
       <c r="S23">
-        <v>0.02633504023408925</v>
+        <v>0.02223522527794032</v>
       </c>
       <c r="T23">
-        <v>0.0385470719051149</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="U23">
-        <v>0.03940520446096654</v>
+        <v>0.03072289156626506</v>
       </c>
       <c r="V23">
-        <v>0.03723816912335143</v>
+        <v>0.01912399753238742</v>
       </c>
       <c r="W23">
-        <v>0.03980503655564582</v>
+        <v>0.005369127516778523</v>
       </c>
       <c r="X23">
-        <v>0.01876019575856444</v>
+        <v>0.0241773002014775</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>0.01584022038567493</v>
       </c>
       <c r="Z23">
-        <v>0.03722943722943723</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>0.0314787701317716</v>
       </c>
       <c r="AB23">
-        <v>0.01464435146443515</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="AC23">
-        <v>0.02631578947368421</v>
+        <v>0.03056426332288401</v>
       </c>
       <c r="AD23">
-        <v>0.01691331923890063</v>
+        <v>0.01175548589341693</v>
       </c>
       <c r="AE23">
-        <v>0.04444444444444445</v>
+        <v>0.02263540824575586</v>
       </c>
       <c r="AF23">
-        <v>0.04347826086956522</v>
+        <v>0.002734731084776664</v>
       </c>
       <c r="AG23">
-        <v>0.02484472049689441</v>
+        <v>0.04613841524573721</v>
       </c>
       <c r="AH23">
-        <v>0.03737113402061856</v>
+        <v>0.01159114857744995</v>
       </c>
       <c r="AI23">
-        <v>0.03116883116883117</v>
+        <v>0.04142857142857143</v>
       </c>
       <c r="AJ23">
-        <v>0.002656042496679947</v>
+        <v>0.02848575712143928</v>
       </c>
       <c r="AK23">
-        <v>0.0625</v>
+        <v>0.06821705426356589</v>
       </c>
       <c r="AL23">
-        <v>0.02170767004341534</v>
+        <v>0</v>
       </c>
       <c r="AM23">
-        <v>0.01536098310291859</v>
+        <v>0.1076555023923445</v>
       </c>
       <c r="AN23">
-        <v>0.0532258064516129</v>
+        <v>0.056</v>
       </c>
       <c r="AO23">
-        <v>0.02777777777777778</v>
+        <v>0.09418282548476455</v>
       </c>
       <c r="AP23">
-        <v>0.03709949409780776</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="AQ23">
-        <v>0.03559322033898305</v>
+        <v>0.06962025316455696</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="AS23">
-        <v>0.02095238095238095</v>
+        <v>0</v>
       </c>
       <c r="AT23">
-        <v>0.07101727447216891</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="AU23">
-        <v>0.05212355212355212</v>
+        <v>0.1587837837837838</v>
       </c>
       <c r="AV23">
-        <v>0</v>
+        <v>0.03169014084507042</v>
       </c>
       <c r="AW23">
-        <v>0</v>
+        <v>0.06589147286821706</v>
       </c>
       <c r="AX23">
-        <v>0.06951871657754011</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="AY23">
-        <v>0.111716621253406</v>
+        <v>0.02892561983471074</v>
       </c>
       <c r="AZ23">
-        <v>0.01497005988023952</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="BA23">
-        <v>0.02424242424242424</v>
+        <v>0.1968085106382979</v>
       </c>
       <c r="BB23">
-        <v>0.01869158878504673</v>
+        <v>0.1028571428571429</v>
       </c>
       <c r="BC23">
-        <v>0.06440677966101695</v>
+        <v>0.25</v>
       </c>
       <c r="BD23">
-        <v>0.01041666666666667</v>
+        <v>0</v>
       </c>
       <c r="BE23">
-        <v>0.01454545454545455</v>
+        <v>0</v>
       </c>
       <c r="BF23">
         <v>0</v>
       </c>
       <c r="BG23">
-        <v>0.1102941176470588</v>
+        <v>0.09848484848484848</v>
       </c>
       <c r="BH23">
-        <v>0.1444444444444444</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="BI23">
-        <v>0</v>
+        <v>0.2184873949579832</v>
       </c>
       <c r="BJ23">
-        <v>0.04938271604938271</v>
+        <v>0.3047619047619048</v>
       </c>
       <c r="BK23">
-        <v>0.115702479338843</v>
+        <v>0</v>
       </c>
       <c r="BL23">
-        <v>0</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="BM23">
-        <v>0.2072072072072072</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="BN23">
         <v>0</v>
@@ -5997,13 +5859,13 @@
         <v>0</v>
       </c>
       <c r="BP23">
-        <v>0.1752577319587629</v>
+        <v>0</v>
       </c>
       <c r="BQ23">
-        <v>0.2065217391304348</v>
+        <v>0</v>
       </c>
       <c r="BR23">
-        <v>0.04046242774566474</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="BS23">
         <v>0</v>
@@ -6012,10 +5874,10 @@
         <v>0</v>
       </c>
       <c r="BU23">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="BV23">
-        <v>0.3974358974358974</v>
+        <v>0</v>
       </c>
       <c r="BW23">
         <v>0</v>
@@ -6024,111 +5886,105 @@
         <v>0</v>
       </c>
       <c r="BY23">
-        <v>0</v>
-      </c>
-      <c r="BZ23">
-        <v>0</v>
-      </c>
-      <c r="CA23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:79">
+    <row r="24" spans="1:77">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" t="s">
         <v>102</v>
       </c>
-      <c r="F24" t="s">
-        <v>104</v>
-      </c>
       <c r="I24">
-        <v>0.02520601066408143</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J24">
-        <v>0.02630272952853598</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K24">
-        <v>0.02575757575757576</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L24">
-        <v>0.02757036186099943</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="M24">
-        <v>0.02208955223880597</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N24">
-        <v>0.02757793764988009</v>
+        <v>0.02404809619238477</v>
       </c>
       <c r="O24">
-        <v>0.02950030102347983</v>
+        <v>0.02329113924050633</v>
       </c>
       <c r="P24">
-        <v>0.03056234718826406</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="Q24">
-        <v>0.0283322601416613</v>
+        <v>0.02508960573476703</v>
       </c>
       <c r="R24">
-        <v>0.0297372060857538</v>
+        <v>0.01942857142857143</v>
       </c>
       <c r="S24">
-        <v>0.02194586686174104</v>
+        <v>0.01930953774136922</v>
       </c>
       <c r="T24">
-        <v>0.02446256486286138</v>
+        <v>0.02452153110047847</v>
       </c>
       <c r="U24">
-        <v>0.03494423791821561</v>
+        <v>0.02289156626506024</v>
       </c>
       <c r="V24">
-        <v>0.03103180760279286</v>
+        <v>0.02652683528685996</v>
       </c>
       <c r="W24">
-        <v>0.02924451665312754</v>
+        <v>0.0302013422818792</v>
       </c>
       <c r="X24">
-        <v>0.02854812398042414</v>
+        <v>0.0241773002014775</v>
       </c>
       <c r="Y24">
-        <v>0.02861952861952862</v>
+        <v>0.02410468319559229</v>
       </c>
       <c r="Z24">
-        <v>0.02251082251082251</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="AA24">
-        <v>0.03343782654127482</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>0.04707112970711297</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="AC24">
-        <v>0.04421052631578947</v>
+        <v>0.02351097178683386</v>
       </c>
       <c r="AD24">
-        <v>0.0412262156448203</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>0.02991107518189167</v>
       </c>
       <c r="AF24">
-        <v>0.04720496894409938</v>
+        <v>0</v>
       </c>
       <c r="AG24">
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>0.05283505154639175</v>
+        <v>0.03371970495258166</v>
       </c>
       <c r="AI24">
-        <v>0.03636363636363636</v>
+        <v>0.05571428571428572</v>
       </c>
       <c r="AJ24">
-        <v>0.03851261620185923</v>
+        <v>0.04197901049475262</v>
       </c>
       <c r="AK24">
         <v>0</v>
@@ -6140,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>0.07733333333333334</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -6152,7 +6008,7 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>0.05585585585585585</v>
+        <v>0</v>
       </c>
       <c r="AS24">
         <v>0</v>
@@ -6179,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>0.1648936170212766</v>
       </c>
       <c r="BB24">
         <v>0</v>
@@ -6203,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="BI24">
-        <v>0.110655737704918</v>
+        <v>0</v>
       </c>
       <c r="BJ24">
         <v>0</v>
@@ -6253,109 +6109,103 @@
       <c r="BY24">
         <v>0</v>
       </c>
-      <c r="BZ24">
-        <v>0</v>
-      </c>
-      <c r="CA24">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:79">
+    <row r="25" spans="1:77">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I25">
-        <v>0.02520601066408143</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J25">
-        <v>0.02630272952853598</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K25">
-        <v>0.02575757575757576</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L25">
-        <v>0.02757036186099943</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="M25">
-        <v>0.01671641791044776</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N25">
-        <v>0.02937649880095923</v>
+        <v>0.02454909819639279</v>
       </c>
       <c r="O25">
-        <v>0.02649006622516556</v>
+        <v>0.02430379746835443</v>
       </c>
       <c r="P25">
-        <v>0.03056234718826406</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="Q25">
-        <v>0.02897617514488087</v>
+        <v>0.02355350742447517</v>
       </c>
       <c r="R25">
-        <v>0.02904564315352697</v>
+        <v>0.02571428571428571</v>
       </c>
       <c r="S25">
-        <v>0.02414045354791514</v>
+        <v>0.02399063779988297</v>
       </c>
       <c r="T25">
-        <v>0.02965159377316531</v>
+        <v>0.02093301435406699</v>
       </c>
       <c r="U25">
-        <v>0.03494423791821561</v>
+        <v>0.02650602409638554</v>
       </c>
       <c r="V25">
-        <v>0.02404965089216447</v>
+        <v>0.02220851326341764</v>
       </c>
       <c r="W25">
-        <v>0.03736799350121852</v>
+        <v>0.02483221476510067</v>
       </c>
       <c r="X25">
-        <v>0.03507340946166395</v>
+        <v>0.02149093351242445</v>
       </c>
       <c r="Y25">
-        <v>0.02693602693602693</v>
+        <v>0.02892561983471074</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>0.02415812591508053</v>
       </c>
       <c r="AB25">
-        <v>0.04079497907949791</v>
+        <v>0.02330827067669173</v>
       </c>
       <c r="AC25">
-        <v>0.03894736842105263</v>
+        <v>0.03369905956112853</v>
       </c>
       <c r="AD25">
-        <v>0.04334038054968287</v>
+        <v>0.02351097178683386</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>0.02263540824575586</v>
       </c>
       <c r="AF25">
-        <v>0.04472049689440994</v>
+        <v>0</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>0.02908726178535607</v>
       </c>
       <c r="AH25">
-        <v>0.04896907216494845</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="AI25">
-        <v>0.03896103896103896</v>
+        <v>0.04857142857142857</v>
       </c>
       <c r="AJ25">
-        <v>0.04648074369189907</v>
+        <v>0</v>
       </c>
       <c r="AK25">
         <v>0</v>
@@ -6364,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>0.03840245775729647</v>
+        <v>0</v>
       </c>
       <c r="AN25">
         <v>0</v>
@@ -6379,10 +6229,10 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>0.08544303797468354</v>
       </c>
       <c r="AS25">
-        <v>0.04952380952380953</v>
+        <v>0</v>
       </c>
       <c r="AT25">
         <v>0</v>
@@ -6394,13 +6244,13 @@
         <v>0</v>
       </c>
       <c r="AW25">
-        <v>0.06081081081081081</v>
+        <v>0</v>
       </c>
       <c r="AX25">
         <v>0</v>
       </c>
       <c r="AY25">
-        <v>0.09264305177111716</v>
+        <v>0</v>
       </c>
       <c r="AZ25">
         <v>0</v>
@@ -6436,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="BK25">
-        <v>0.1198347107438017</v>
+        <v>0</v>
       </c>
       <c r="BL25">
         <v>0</v>
@@ -6460,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>0</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="BT25">
         <v>0</v>
@@ -6480,115 +6330,109 @@
       <c r="BY25">
         <v>0</v>
       </c>
-      <c r="BZ25">
-        <v>0</v>
-      </c>
-      <c r="CA25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:79">
+    <row r="26" spans="1:77">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I26">
-        <v>0.02472127968977218</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J26">
-        <v>0.02630272952853598</v>
+        <v>0.0226283724978242</v>
       </c>
       <c r="K26">
-        <v>0.02626262626262626</v>
+        <v>0.02379883251010328</v>
       </c>
       <c r="L26">
-        <v>0.02814474439977025</v>
+        <v>0.02289719626168224</v>
       </c>
       <c r="M26">
-        <v>0.02507462686567164</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N26">
-        <v>0.02398081534772182</v>
+        <v>0.0250501002004008</v>
       </c>
       <c r="O26">
-        <v>0.02889825406381698</v>
+        <v>0.02379746835443038</v>
       </c>
       <c r="P26">
-        <v>0.03056234718826406</v>
+        <v>0.02279635258358663</v>
       </c>
       <c r="Q26">
-        <v>0.03026400515132003</v>
+        <v>0.02355350742447517</v>
       </c>
       <c r="R26">
-        <v>0.03042876901798064</v>
+        <v>0.02457142857142857</v>
       </c>
       <c r="S26">
-        <v>0.02852962692026335</v>
+        <v>0.0280866003510825</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>0.02033492822966507</v>
       </c>
       <c r="U26">
-        <v>0.0275092936802974</v>
+        <v>0.02289156626506024</v>
       </c>
       <c r="V26">
-        <v>0.03568657874321179</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>0.03655564581640942</v>
+        <v>0.02818791946308725</v>
       </c>
       <c r="X26">
-        <v>0.03099510603588907</v>
+        <v>0.02686366689053056</v>
       </c>
       <c r="Y26">
-        <v>0.02946127946127946</v>
+        <v>0.02823691460055096</v>
       </c>
       <c r="Z26">
-        <v>0.02943722943722944</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>0.0322108345534407</v>
       </c>
       <c r="AB26">
-        <v>0.03451882845188285</v>
+        <v>0.02932330827067669</v>
       </c>
       <c r="AC26">
-        <v>0.03789473684210527</v>
+        <v>0.02507836990595611</v>
       </c>
       <c r="AD26">
-        <v>0.04334038054968287</v>
+        <v>0.0274294670846395</v>
       </c>
       <c r="AE26">
-        <v>0.02962962962962963</v>
+        <v>0.02667744543249798</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>0.03372835004557885</v>
       </c>
       <c r="AG26">
-        <v>0.03975155279503106</v>
+        <v>0</v>
       </c>
       <c r="AH26">
-        <v>0.05541237113402062</v>
+        <v>0</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>0.04428571428571428</v>
       </c>
       <c r="AJ26">
         <v>0</v>
       </c>
       <c r="AK26">
-        <v>0.04261363636363636</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>0</v>
@@ -6615,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="AT26">
-        <v>0.05950095969289827</v>
+        <v>0</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6633,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="AZ26">
-        <v>0.08682634730538923</v>
+        <v>0</v>
       </c>
       <c r="BA26">
         <v>0</v>
@@ -6710,109 +6554,103 @@
       <c r="BY26">
         <v>0</v>
       </c>
-      <c r="BZ26">
-        <v>0</v>
-      </c>
-      <c r="CA26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:79">
+    <row r="27" spans="1:77">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" t="s">
         <v>104</v>
       </c>
-      <c r="G27" t="s">
-        <v>106</v>
-      </c>
       <c r="I27">
-        <v>0.02520601066408143</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J27">
-        <v>0.02630272952853598</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K27">
-        <v>0.02575757575757576</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L27">
-        <v>0.0269959793222286</v>
+        <v>0.02289719626168224</v>
       </c>
       <c r="M27">
-        <v>0.02447761194029851</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N27">
-        <v>0.02877697841726619</v>
+        <v>0.02304609218436874</v>
       </c>
       <c r="O27">
-        <v>0.02950030102347983</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="P27">
-        <v>0.03056234718826406</v>
+        <v>0.0243161094224924</v>
       </c>
       <c r="Q27">
-        <v>0.02962009014810045</v>
+        <v>0.02406554019457245</v>
       </c>
       <c r="R27">
-        <v>0.02558782849239281</v>
+        <v>0.02342857142857143</v>
       </c>
       <c r="S27">
-        <v>0.02779809802487198</v>
+        <v>0.02633118782913985</v>
       </c>
       <c r="T27">
-        <v>0.02001482579688658</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="U27">
-        <v>0.03345724907063197</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="V27">
-        <v>0.03335919317300233</v>
+        <v>0.02590993214065392</v>
       </c>
       <c r="W27">
-        <v>0.03411860276198213</v>
+        <v>0.02483221476510067</v>
       </c>
       <c r="X27">
-        <v>0.02854812398042414</v>
+        <v>0.02216252518468771</v>
       </c>
       <c r="Y27">
-        <v>0.03282828282828283</v>
+        <v>0.02617079889807163</v>
       </c>
       <c r="Z27">
-        <v>0.02510822510822511</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>0.0314787701317716</v>
       </c>
       <c r="AB27">
-        <v>0.04602510460251046</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.03368421052631579</v>
+        <v>0.0274294670846395</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>0.03056426332288401</v>
       </c>
       <c r="AE27">
-        <v>0.03174603174603174</v>
+        <v>0.02506063055780113</v>
       </c>
       <c r="AF27">
-        <v>0.0422360248447205</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>0.03229813664596273</v>
+        <v>0</v>
       </c>
       <c r="AH27">
-        <v>0.05154639175257732</v>
+        <v>0.02950474183350896</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>0.05142857142857143</v>
       </c>
       <c r="AJ27">
         <v>0</v>
@@ -6824,22 +6662,22 @@
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>0.05069124423963134</v>
+        <v>0</v>
       </c>
       <c r="AN27">
-        <v>0.05</v>
+        <v>0.08533333333333333</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>0.08033240997229917</v>
       </c>
       <c r="AP27">
         <v>0</v>
       </c>
       <c r="AQ27">
-        <v>0.04745762711864407</v>
+        <v>0</v>
       </c>
       <c r="AR27">
-        <v>0.06486486486486487</v>
+        <v>0</v>
       </c>
       <c r="AS27">
         <v>0</v>
@@ -6878,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="BE27">
-        <v>0</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="BF27">
         <v>0</v>
@@ -6940,109 +6778,103 @@
       <c r="BY27">
         <v>0</v>
       </c>
-      <c r="BZ27">
-        <v>0</v>
-      </c>
-      <c r="CA27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:79">
+    <row r="28" spans="1:77">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I28">
-        <v>0.02520601066408143</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J28">
-        <v>0.02630272952853598</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K28">
-        <v>0.02575757575757576</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L28">
-        <v>0.02584721424468696</v>
+        <v>0.02289719626168224</v>
       </c>
       <c r="M28">
-        <v>0.02507462686567164</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N28">
-        <v>0.02877697841726619</v>
+        <v>0.02254509018036072</v>
       </c>
       <c r="O28">
-        <v>0.02829620710415412</v>
+        <v>0.02379746835443038</v>
       </c>
       <c r="P28">
-        <v>0.03056234718826406</v>
+        <v>0.0243161094224924</v>
       </c>
       <c r="Q28">
-        <v>0.02962009014810045</v>
+        <v>0.02560163850486431</v>
       </c>
       <c r="R28">
-        <v>0.02835408022130014</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="S28">
-        <v>0.02926115581565472</v>
+        <v>0.02691632533645407</v>
       </c>
       <c r="T28">
-        <v>0.02223869532987398</v>
+        <v>0.02332535885167464</v>
       </c>
       <c r="U28">
-        <v>0.03643122676579925</v>
+        <v>0.02228915662650603</v>
       </c>
       <c r="V28">
-        <v>0.03413498836307215</v>
+        <v>0.02652683528685996</v>
       </c>
       <c r="W28">
-        <v>0.03493095044679122</v>
+        <v>0.02147651006711409</v>
       </c>
       <c r="X28">
-        <v>0.03017944535073409</v>
+        <v>0.02820685023505709</v>
       </c>
       <c r="Y28">
-        <v>0.03198653198653199</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.02729885057471265</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>0.0212298682284041</v>
       </c>
       <c r="AB28">
-        <v>0.03765690376569038</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="AC28">
-        <v>0.03368421052631579</v>
+        <v>0.03213166144200627</v>
       </c>
       <c r="AD28">
-        <v>0.0306553911205074</v>
+        <v>0.02664576802507837</v>
       </c>
       <c r="AE28">
-        <v>0.03492063492063492</v>
+        <v>0.02910266774454325</v>
       </c>
       <c r="AF28">
-        <v>0.04347826086956522</v>
+        <v>0.03190519598906107</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>0.03309929789368105</v>
       </c>
       <c r="AH28">
-        <v>0.05025773195876289</v>
+        <v>0.03161222339304531</v>
       </c>
       <c r="AI28">
-        <v>0.04025974025974026</v>
+        <v>0.03428571428571429</v>
       </c>
       <c r="AJ28">
         <v>0</v>
@@ -7051,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>0.06768558951965066</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -7084,10 +6916,10 @@
         <v>0</v>
       </c>
       <c r="AW28">
-        <v>0</v>
+        <v>0.09689922480620156</v>
       </c>
       <c r="AX28">
-        <v>0</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="AY28">
         <v>0</v>
@@ -7096,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>0.1436170212765958</v>
       </c>
       <c r="BB28">
         <v>0</v>
@@ -7108,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="BE28">
-        <v>0.1236363636363636</v>
+        <v>0</v>
       </c>
       <c r="BF28">
         <v>0</v>
@@ -7170,130 +7002,124 @@
       <c r="BY28">
         <v>0</v>
       </c>
-      <c r="BZ28">
-        <v>0</v>
-      </c>
-      <c r="CA28">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:79">
+    <row r="29" spans="1:77">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I29">
-        <v>0.02520601066408143</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J29">
-        <v>0.02630272952853598</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K29">
-        <v>0.02575757575757576</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="L29">
-        <v>0.02757036186099943</v>
+        <v>0.02149532710280374</v>
       </c>
       <c r="M29">
-        <v>0.02626865671641791</v>
+        <v>0.02503610977371208</v>
       </c>
       <c r="N29">
-        <v>0.02817745803357314</v>
+        <v>0.02454909819639279</v>
       </c>
       <c r="O29">
-        <v>0.02709211318482842</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="P29">
-        <v>0.02995110024449878</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="Q29">
-        <v>0.03219575016097875</v>
+        <v>0.02457757296466974</v>
       </c>
       <c r="R29">
-        <v>0.0297372060857538</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="S29">
-        <v>0.02779809802487198</v>
+        <v>0.02633118782913985</v>
       </c>
       <c r="T29">
-        <v>0.03039288361749444</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="U29">
-        <v>0.03420074349442379</v>
+        <v>0.02168674698795181</v>
       </c>
       <c r="V29">
-        <v>0.02482544608223429</v>
+        <v>0.02652683528685996</v>
       </c>
       <c r="W29">
-        <v>0.03411860276198213</v>
+        <v>0.02147651006711409</v>
       </c>
       <c r="X29">
-        <v>0.03181076672104405</v>
+        <v>0.02081934184016118</v>
       </c>
       <c r="Y29">
-        <v>0.03367003367003367</v>
+        <v>0.02548209366391185</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>0.02370689655172414</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>0.01976573938506589</v>
       </c>
       <c r="AB29">
-        <v>0.03661087866108786</v>
+        <v>0.02932330827067669</v>
       </c>
       <c r="AC29">
-        <v>0.03789473684210527</v>
+        <v>0.0219435736677116</v>
       </c>
       <c r="AD29">
-        <v>0.03911205073995772</v>
+        <v>0</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>0.03314470493128537</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>0.0227894257064722</v>
       </c>
       <c r="AG29">
-        <v>0.03105590062111801</v>
+        <v>0</v>
       </c>
       <c r="AH29">
-        <v>0.03737113402061856</v>
+        <v>0</v>
       </c>
       <c r="AI29">
-        <v>0.03116883116883117</v>
+        <v>0.06</v>
       </c>
       <c r="AJ29">
-        <v>0</v>
+        <v>0.05097451274362819</v>
       </c>
       <c r="AK29">
-        <v>0</v>
+        <v>0.03565891472868217</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>0.07641921397379912</v>
       </c>
       <c r="AM29">
         <v>0</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>0.06933333333333333</v>
       </c>
       <c r="AO29">
-        <v>0.04248366013071896</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>0.1091954022988506</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -7305,16 +7131,16 @@
         <v>0</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="AU29">
         <v>0</v>
       </c>
       <c r="AV29">
-        <v>0</v>
+        <v>0.1056338028169014</v>
       </c>
       <c r="AW29">
-        <v>0.06756756756756757</v>
+        <v>0</v>
       </c>
       <c r="AX29">
         <v>0</v>
@@ -7329,10 +7155,10 @@
         <v>0</v>
       </c>
       <c r="BB29">
-        <v>0.08411214953271028</v>
+        <v>0</v>
       </c>
       <c r="BC29">
-        <v>0.1152542372881356</v>
+        <v>0</v>
       </c>
       <c r="BD29">
         <v>0</v>
@@ -7347,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="BH29">
-        <v>0.1222222222222222</v>
+        <v>0</v>
       </c>
       <c r="BI29">
         <v>0</v>
@@ -7356,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="BK29">
-        <v>0.115702479338843</v>
+        <v>0</v>
       </c>
       <c r="BL29">
         <v>0</v>
@@ -7380,13 +7206,13 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>0.2246376811594203</v>
+        <v>0</v>
       </c>
       <c r="BT29">
         <v>0</v>
       </c>
       <c r="BU29">
-        <v>0</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="BV29">
         <v>0</v>
@@ -7400,100 +7226,94 @@
       <c r="BY29">
         <v>0</v>
       </c>
-      <c r="BZ29">
-        <v>0</v>
-      </c>
-      <c r="CA29">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:79">
+    <row r="30" spans="1:77">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I30">
-        <v>0.02375181774115366</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J30">
-        <v>0.02531017369727047</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K30">
-        <v>0.02121212121212121</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>0.02149532710280374</v>
       </c>
       <c r="M30">
-        <v>0.02805970149253731</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N30">
-        <v>0.03117505995203837</v>
+        <v>0.02454909819639279</v>
       </c>
       <c r="O30">
-        <v>0.02347983142685129</v>
+        <v>0.02430379746835443</v>
       </c>
       <c r="P30">
-        <v>0.0293398533007335</v>
+        <v>0.02279635258358663</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>0.02560163850486431</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>0.02057142857142857</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>0.02750146284376829</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>0.02033492822966507</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>0.02228915662650603</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>0.01974090067859346</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>0.02214765100671141</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>0.02820685023505709</v>
       </c>
       <c r="Y30">
-        <v>0.03872053872053872</v>
+        <v>0.02823691460055096</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>0.03089080459770115</v>
       </c>
       <c r="AA30">
-        <v>0.04702194357366771</v>
+        <v>0.0322108345534407</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>0.03134796238244514</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>0.0307194826192401</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>0.03555150410209663</v>
       </c>
       <c r="AG30">
         <v>0</v>
@@ -7502,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>0.06883116883116883</v>
+        <v>0</v>
       </c>
       <c r="AJ30">
         <v>0</v>
@@ -7520,10 +7340,10 @@
         <v>0</v>
       </c>
       <c r="AO30">
-        <v>0.06209150326797386</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.08431703204047218</v>
+        <v>0</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -7544,13 +7364,13 @@
         <v>0</v>
       </c>
       <c r="AW30">
-        <v>0.09234234234234234</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="AX30">
         <v>0</v>
       </c>
       <c r="AY30">
-        <v>0</v>
+        <v>0.128099173553719</v>
       </c>
       <c r="AZ30">
         <v>0</v>
@@ -7559,16 +7379,16 @@
         <v>0</v>
       </c>
       <c r="BB30">
-        <v>0.1246105919003115</v>
+        <v>0</v>
       </c>
       <c r="BC30">
         <v>0</v>
       </c>
       <c r="BD30">
-        <v>0.1527777777777778</v>
+        <v>0</v>
       </c>
       <c r="BE30">
-        <v>0.1563636363636364</v>
+        <v>0</v>
       </c>
       <c r="BF30">
         <v>0</v>
@@ -7630,109 +7450,103 @@
       <c r="BY30">
         <v>0</v>
       </c>
-      <c r="BZ30">
-        <v>0</v>
-      </c>
-      <c r="CA30">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:79">
+    <row r="31" spans="1:77">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I31">
-        <v>0.01987396994667959</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>0.02242990654205607</v>
       </c>
       <c r="M31">
-        <v>0.02985074626865672</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N31">
-        <v>0.03177458033573141</v>
+        <v>0.02454909819639279</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.02379746835443038</v>
       </c>
       <c r="P31">
-        <v>0.02444987775061125</v>
+        <v>0.02330293819655522</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>0.02560163850486431</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>0.02571428571428571</v>
       </c>
       <c r="S31">
-        <v>0.02706656912948062</v>
+        <v>0.02574605032182563</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>0.0257177033492823</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>0.01626506024096385</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>0.02344231955582974</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>0.01947615849563466</v>
       </c>
       <c r="Y31">
-        <v>0.03282828282828283</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>0.02514367816091954</v>
       </c>
       <c r="AA31">
-        <v>0.04806687565308255</v>
+        <v>0.02855051244509517</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>0.02781954887218045</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>0.02351097178683386</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>0.02586903799514955</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>0.03828623518687329</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>0.04112337011033099</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>0.03266596417281348</v>
       </c>
       <c r="AI31">
-        <v>0.05844155844155844</v>
+        <v>0</v>
       </c>
       <c r="AJ31">
         <v>0</v>
@@ -7750,22 +7564,22 @@
         <v>0</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>0.07756232686980609</v>
       </c>
       <c r="AP31">
-        <v>0.08263069139966273</v>
+        <v>0.09770114942528736</v>
       </c>
       <c r="AQ31">
-        <v>0.08813559322033898</v>
+        <v>0</v>
       </c>
       <c r="AR31">
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>0.09714285714285714</v>
+        <v>0</v>
       </c>
       <c r="AT31">
-        <v>0.0690978886756238</v>
+        <v>0</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7774,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="AW31">
-        <v>0.0945945945945946</v>
+        <v>0</v>
       </c>
       <c r="AX31">
         <v>0</v>
@@ -7783,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="AZ31">
-        <v>0.1017964071856287</v>
+        <v>0</v>
       </c>
       <c r="BA31">
         <v>0</v>
@@ -7792,22 +7606,22 @@
         <v>0</v>
       </c>
       <c r="BC31">
-        <v>0.1186440677966102</v>
+        <v>0</v>
       </c>
       <c r="BD31">
-        <v>0.1527777777777778</v>
+        <v>0</v>
       </c>
       <c r="BE31">
         <v>0</v>
       </c>
       <c r="BF31">
-        <v>0.1758241758241758</v>
+        <v>0</v>
       </c>
       <c r="BG31">
         <v>0</v>
       </c>
       <c r="BH31">
-        <v>0.1592592592592593</v>
+        <v>0</v>
       </c>
       <c r="BI31">
         <v>0</v>
@@ -7837,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="BR31">
-        <v>0.2716763005780347</v>
+        <v>0</v>
       </c>
       <c r="BS31">
         <v>0</v>
@@ -7852,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="BW31">
-        <v>0.6031746031746031</v>
+        <v>0</v>
       </c>
       <c r="BX31">
         <v>0</v>
@@ -7860,118 +7674,112 @@
       <c r="BY31">
         <v>0</v>
       </c>
-      <c r="BZ31">
-        <v>0</v>
-      </c>
-      <c r="CA31">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:79">
+    <row r="32" spans="1:77">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I32">
-        <v>0.02569074163839069</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J32">
-        <v>0.02580645161290323</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K32">
-        <v>0.02474747474747475</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L32">
-        <v>0.02240091901206203</v>
+        <v>0.02289719626168224</v>
       </c>
       <c r="M32">
-        <v>0.02447761194029851</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N32">
-        <v>0.02577937649880096</v>
+        <v>0.02354709418837675</v>
       </c>
       <c r="O32">
-        <v>0.02769416014449127</v>
+        <v>0.02430379746835443</v>
       </c>
       <c r="P32">
-        <v>0.0293398533007335</v>
+        <v>0.02330293819655522</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>0.02560163850486431</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>0.02514285714285714</v>
       </c>
       <c r="S32">
-        <v>0.02706656912948062</v>
+        <v>0.02633118782913985</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>0.0257177033492823</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>0.01987951807228916</v>
       </c>
       <c r="V32">
-        <v>0.03413498836307215</v>
+        <v>0.02282541640962369</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>0.02619207521826729</v>
       </c>
       <c r="Y32">
-        <v>0.04292929292929293</v>
+        <v>0.02823691460055096</v>
       </c>
       <c r="Z32">
-        <v>0.04069264069264069</v>
+        <v>0.02729885057471265</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>0.02635431918008785</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>0.02180451127819549</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>0.0329153605015674</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>0.0219435736677116</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>0.02182700080840744</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>0.03099361896080219</v>
       </c>
       <c r="AG32">
-        <v>0.04472049689440994</v>
+        <v>0</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>0.03266596417281348</v>
       </c>
       <c r="AI32">
-        <v>0.05454545454545454</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="AJ32">
-        <v>0.04648074369189907</v>
+        <v>0.03748125937031484</v>
       </c>
       <c r="AK32">
-        <v>0</v>
+        <v>0.03720930232558139</v>
       </c>
       <c r="AL32">
-        <v>0</v>
+        <v>0.06986899563318777</v>
       </c>
       <c r="AM32">
         <v>0</v>
@@ -7983,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.07588532883642496</v>
+        <v>0</v>
       </c>
       <c r="AQ32">
         <v>0</v>
@@ -7992,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0</v>
+        <v>0.112540192926045</v>
       </c>
       <c r="AT32">
         <v>0</v>
@@ -8004,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="AW32">
-        <v>0.09009009009009009</v>
+        <v>0</v>
       </c>
       <c r="AX32">
         <v>0</v>
@@ -8016,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>0</v>
+        <v>0.1382978723404255</v>
       </c>
       <c r="BB32">
         <v>0</v>
@@ -8028,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="BE32">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="BF32">
         <v>0</v>
@@ -8058,7 +7866,7 @@
         <v>0</v>
       </c>
       <c r="BO32">
-        <v>0.1835748792270532</v>
+        <v>0</v>
       </c>
       <c r="BP32">
         <v>0</v>
@@ -8090,106 +7898,100 @@
       <c r="BY32">
         <v>0</v>
       </c>
-      <c r="BZ32">
-        <v>0</v>
-      </c>
-      <c r="CA32">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:79">
+    <row r="33" spans="1:77">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J33">
-        <v>0.01290322580645161</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K33">
-        <v>0.0202020202020202</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L33">
-        <v>0.02642159678345778</v>
+        <v>0.02383177570093458</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>0.02407318247472316</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>0.02404809619238477</v>
       </c>
       <c r="O33">
-        <v>0.024683925346177</v>
+        <v>0.02379746835443038</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>0.02330293819655522</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>0.02508960573476703</v>
       </c>
       <c r="R33">
-        <v>0.02213001383125865</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="S33">
-        <v>0.03438185808339429</v>
+        <v>0.02633118782913985</v>
       </c>
       <c r="T33">
-        <v>0.03187546330615271</v>
+        <v>0.0257177033492823</v>
       </c>
       <c r="U33">
-        <v>0.02899628252788104</v>
+        <v>0.02108433734939759</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>0.02405922270203578</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>0.02550335570469799</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>0.01947615849563466</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="Z33">
-        <v>0.02857142857142857</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="AA33">
-        <v>0.03239289446185998</v>
+        <v>0.03074670571010249</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>0.02781954887218045</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="AD33">
         <v>0</v>
       </c>
       <c r="AE33">
-        <v>0.04761904761904762</v>
+        <v>0.03314470493128537</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>0.03099361896080219</v>
       </c>
       <c r="AG33">
-        <v>0.03726708074534162</v>
+        <v>0.03610832497492478</v>
       </c>
       <c r="AH33">
-        <v>0.03479381443298969</v>
+        <v>0</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -8198,28 +8000,28 @@
         <v>0</v>
       </c>
       <c r="AK33">
-        <v>0.07528409090909091</v>
+        <v>0.04961240310077519</v>
       </c>
       <c r="AL33">
-        <v>0.0723589001447178</v>
+        <v>0</v>
       </c>
       <c r="AM33">
-        <v>0.07834101382488479</v>
+        <v>0</v>
       </c>
       <c r="AN33">
-        <v>0.07903225806451612</v>
+        <v>0</v>
       </c>
       <c r="AO33">
-        <v>0.0718954248366013</v>
+        <v>0</v>
       </c>
       <c r="AP33">
         <v>0</v>
       </c>
       <c r="AQ33">
-        <v>0.06101694915254238</v>
+        <v>0</v>
       </c>
       <c r="AR33">
-        <v>0.07567567567567568</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="AS33">
         <v>0</v>
@@ -8228,25 +8030,25 @@
         <v>0</v>
       </c>
       <c r="AU33">
-        <v>0.1003861003861004</v>
+        <v>0</v>
       </c>
       <c r="AV33">
-        <v>0.07676767676767676</v>
+        <v>0</v>
       </c>
       <c r="AW33">
         <v>0</v>
       </c>
       <c r="AX33">
-        <v>0.0748663101604278</v>
+        <v>0.123015873015873</v>
       </c>
       <c r="AY33">
-        <v>0.09536784741144415</v>
+        <v>0</v>
       </c>
       <c r="AZ33">
         <v>0</v>
       </c>
       <c r="BA33">
-        <v>0.1454545454545454</v>
+        <v>0</v>
       </c>
       <c r="BB33">
         <v>0</v>
@@ -8279,13 +8081,13 @@
         <v>0</v>
       </c>
       <c r="BL33">
-        <v>0.1283185840707965</v>
+        <v>0</v>
       </c>
       <c r="BM33">
         <v>0</v>
       </c>
       <c r="BN33">
-        <v>0.1566820276497696</v>
+        <v>0</v>
       </c>
       <c r="BO33">
         <v>0</v>
@@ -8303,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="BT33">
-        <v>0.2803030303030303</v>
+        <v>0</v>
       </c>
       <c r="BU33">
         <v>0</v>
@@ -8320,124 +8122,118 @@
       <c r="BY33">
         <v>0</v>
       </c>
-      <c r="BZ33">
-        <v>0</v>
-      </c>
-      <c r="CA33">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:79">
+    <row r="34" spans="1:77">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I34">
-        <v>0.01454192922927775</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J34">
-        <v>0.01389578163771712</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K34">
-        <v>0.01919191919191919</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L34">
-        <v>0.02871912693854107</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="M34">
-        <v>0.02746268656716418</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>0.02354709418837675</v>
       </c>
       <c r="O34">
-        <v>0.01505117399157134</v>
+        <v>0.02481012658227848</v>
       </c>
       <c r="P34">
-        <v>0.02689486552567237</v>
+        <v>0.02228976697061803</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>0.02457757296466974</v>
       </c>
       <c r="R34">
-        <v>0.01798063623789765</v>
+        <v>0.02571428571428571</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>0.02691632533645407</v>
       </c>
       <c r="T34">
-        <v>0.02594514455151965</v>
+        <v>0.0257177033492823</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>0.02530120481927711</v>
       </c>
       <c r="V34">
-        <v>0.03025601241272304</v>
+        <v>0.02344231955582974</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>0.0261744966442953</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>0.02484889187374077</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>0.02823691460055096</v>
       </c>
       <c r="Z34">
-        <v>0.02943722943722944</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="AA34">
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>0.02556390977443609</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>0.03134796238244514</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>0.02429467084639498</v>
       </c>
       <c r="AE34">
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>0.04099378881987577</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>0.03354037267080745</v>
+        <v>0</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>0.0368809272918862</v>
       </c>
       <c r="AI34">
         <v>0</v>
       </c>
       <c r="AJ34">
-        <v>0.04116865869853917</v>
+        <v>0</v>
       </c>
       <c r="AK34">
-        <v>0.05823863636363636</v>
+        <v>0.04961240310077519</v>
       </c>
       <c r="AL34">
-        <v>0.07525325615050651</v>
+        <v>0</v>
       </c>
       <c r="AM34">
-        <v>0.07526881720430108</v>
+        <v>0</v>
       </c>
       <c r="AN34">
-        <v>0.06935483870967742</v>
+        <v>0</v>
       </c>
       <c r="AO34">
         <v>0</v>
@@ -8449,25 +8245,25 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>0.07567567567567568</v>
+        <v>0</v>
       </c>
       <c r="AS34">
-        <v>0.05523809523809524</v>
+        <v>0</v>
       </c>
       <c r="AT34">
         <v>0</v>
       </c>
       <c r="AU34">
-        <v>0.09266409266409266</v>
+        <v>0</v>
       </c>
       <c r="AV34">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="AW34">
         <v>0</v>
       </c>
       <c r="AX34">
-        <v>0.1417112299465241</v>
+        <v>0</v>
       </c>
       <c r="AY34">
         <v>0</v>
@@ -8476,10 +8272,10 @@
         <v>0</v>
       </c>
       <c r="BA34">
-        <v>0.1545454545454545</v>
+        <v>0</v>
       </c>
       <c r="BB34">
-        <v>0.1152647975077882</v>
+        <v>0</v>
       </c>
       <c r="BC34">
         <v>0</v>
@@ -8497,13 +8293,13 @@
         <v>0</v>
       </c>
       <c r="BH34">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="BI34">
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>0.1934156378600823</v>
+        <v>0</v>
       </c>
       <c r="BK34">
         <v>0</v>
@@ -8521,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="BP34">
-        <v>0.1649484536082474</v>
+        <v>0</v>
       </c>
       <c r="BQ34">
         <v>0</v>
@@ -8530,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="BS34">
-        <v>0.2898550724637681</v>
+        <v>0</v>
       </c>
       <c r="BT34">
         <v>0</v>
@@ -8545,144 +8341,138 @@
         <v>0</v>
       </c>
       <c r="BX34">
-        <v>0.5901639344262295</v>
+        <v>0</v>
       </c>
       <c r="BY34">
         <v>0</v>
       </c>
-      <c r="BZ34">
-        <v>0</v>
-      </c>
-      <c r="CA34">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:79">
+    <row r="35" spans="1:77">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I35">
-        <v>0.01938923897237033</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J35">
-        <v>0.01786600496277916</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L35">
-        <v>0.02986789201608271</v>
+        <v>0.02289719626168224</v>
       </c>
       <c r="M35">
-        <v>0.02208955223880597</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N35">
-        <v>0.03057553956834532</v>
+        <v>0.02404809619238477</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.02329113924050633</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>0.02560163850486431</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>0.02514285714285714</v>
       </c>
       <c r="S35">
-        <v>0.02852962692026335</v>
+        <v>0.02633118782913985</v>
       </c>
       <c r="T35">
-        <v>0.02594514455151965</v>
+        <v>0.02093301435406699</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>0.01686746987951807</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>0.02590993214065392</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>0.0261744966442953</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>0.02552048354600403</v>
       </c>
       <c r="Y35">
-        <v>0.04040404040404041</v>
+        <v>0.01997245179063361</v>
       </c>
       <c r="Z35">
-        <v>0.02597402597402598</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="AA35">
-        <v>0.05538140020898642</v>
+        <v>0</v>
       </c>
       <c r="AB35">
         <v>0</v>
       </c>
       <c r="AC35">
-        <v>0.02947368421052632</v>
+        <v>0.02821316614420063</v>
       </c>
       <c r="AD35">
-        <v>0.03488372093023256</v>
+        <v>0.02037617554858934</v>
       </c>
       <c r="AE35">
-        <v>0.03386243386243386</v>
+        <v>0.03314470493128537</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>0.03919781221513218</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>0.03410230692076228</v>
       </c>
       <c r="AH35">
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>0.05324675324675324</v>
+        <v>0</v>
       </c>
       <c r="AJ35">
-        <v>0</v>
+        <v>0.04647676161919041</v>
       </c>
       <c r="AK35">
-        <v>0.04119318181818182</v>
+        <v>0.04961240310077519</v>
       </c>
       <c r="AL35">
-        <v>0.06222865412445731</v>
+        <v>0</v>
       </c>
       <c r="AM35">
-        <v>0.07219662058371736</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="AN35">
-        <v>0.07903225806451612</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>0.08169934640522876</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>0.05733558178752108</v>
+        <v>0</v>
       </c>
       <c r="AQ35">
-        <v>0.0711864406779661</v>
+        <v>0</v>
       </c>
       <c r="AR35">
-        <v>0.07927927927927927</v>
+        <v>0</v>
       </c>
       <c r="AS35">
-        <v>0.08571428571428572</v>
+        <v>0.08681672025723473</v>
       </c>
       <c r="AT35">
         <v>0</v>
@@ -8691,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="AV35">
-        <v>0</v>
+        <v>0.1056338028169014</v>
       </c>
       <c r="AW35">
-        <v>0.06981981981981981</v>
+        <v>0</v>
       </c>
       <c r="AX35">
         <v>0</v>
@@ -8715,16 +8505,16 @@
         <v>0</v>
       </c>
       <c r="BD35">
-        <v>0.1319444444444444</v>
+        <v>0</v>
       </c>
       <c r="BE35">
-        <v>0.09454545454545454</v>
+        <v>0.2402597402597403</v>
       </c>
       <c r="BF35">
         <v>0</v>
       </c>
       <c r="BG35">
-        <v>0.09926470588235294</v>
+        <v>0</v>
       </c>
       <c r="BH35">
         <v>0</v>
@@ -8745,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="BN35">
-        <v>0.2119815668202765</v>
+        <v>0</v>
       </c>
       <c r="BO35">
         <v>0</v>
@@ -8772,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="BW35">
-        <v>0.3968253968253968</v>
+        <v>0</v>
       </c>
       <c r="BX35">
         <v>0</v>
@@ -8780,166 +8570,160 @@
       <c r="BY35">
         <v>0</v>
       </c>
-      <c r="BZ35">
-        <v>0</v>
-      </c>
-      <c r="CA35">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:79">
+    <row r="36" spans="1:77">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I36">
-        <v>0.02084343189529811</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J36">
-        <v>0.0228287841191067</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K36">
-        <v>0.02575757575757576</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L36">
-        <v>0.03044227455485353</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="M36">
-        <v>0.02447761194029851</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N36">
-        <v>0.026378896882494</v>
+        <v>0.02454909819639279</v>
       </c>
       <c r="O36">
-        <v>0.02227573750752559</v>
+        <v>0.02379746835443038</v>
       </c>
       <c r="P36">
-        <v>0.02383863080684596</v>
+        <v>0.02279635258358663</v>
       </c>
       <c r="Q36">
-        <v>0.02704443013522215</v>
+        <v>0.02457757296466974</v>
       </c>
       <c r="R36">
-        <v>0.0276625172890733</v>
+        <v>0.02457142857142857</v>
       </c>
       <c r="S36">
-        <v>0.02633504023408925</v>
+        <v>0.01989467524868344</v>
       </c>
       <c r="T36">
-        <v>0.02297998517420312</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="U36">
-        <v>0.01561338289962825</v>
+        <v>0.02469879518072289</v>
       </c>
       <c r="V36">
-        <v>0.02327385570209465</v>
+        <v>0.0283775447254781</v>
       </c>
       <c r="W36">
-        <v>0.02680747359870024</v>
+        <v>0.02348993288590604</v>
       </c>
       <c r="X36">
-        <v>0.03099510603588907</v>
+        <v>0.02484889187374077</v>
       </c>
       <c r="Y36">
-        <v>0.02356902356902357</v>
+        <v>0.02617079889807163</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>0.02801724137931035</v>
       </c>
       <c r="AA36">
-        <v>0.04702194357366771</v>
+        <v>0.0322108345534407</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>0.01954887218045113</v>
       </c>
       <c r="AC36">
         <v>0</v>
       </c>
       <c r="AD36">
-        <v>0.02325581395348837</v>
+        <v>0.02507836990595611</v>
       </c>
       <c r="AE36">
-        <v>0.03068783068783069</v>
+        <v>0.02021018593371059</v>
       </c>
       <c r="AF36">
         <v>0</v>
       </c>
       <c r="AG36">
-        <v>0.0422360248447205</v>
+        <v>0.03009027081243731</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>0.03266596417281348</v>
       </c>
       <c r="AI36">
-        <v>0</v>
+        <v>0.05142857142857143</v>
       </c>
       <c r="AJ36">
-        <v>0</v>
+        <v>0.0494752623688156</v>
       </c>
       <c r="AK36">
-        <v>0.06818181818181818</v>
+        <v>0</v>
       </c>
       <c r="AL36">
-        <v>0.07525325615050651</v>
+        <v>0</v>
       </c>
       <c r="AM36">
-        <v>0.07680491551459294</v>
+        <v>0</v>
       </c>
       <c r="AN36">
-        <v>0.07580645161290323</v>
+        <v>0.07466666666666667</v>
       </c>
       <c r="AO36">
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="AQ36">
-        <v>0.03898305084745763</v>
+        <v>0</v>
       </c>
       <c r="AR36">
-        <v>0.04504504504504504</v>
+        <v>0</v>
       </c>
       <c r="AS36">
         <v>0</v>
       </c>
       <c r="AT36">
-        <v>0.06142034548944338</v>
+        <v>0</v>
       </c>
       <c r="AU36">
-        <v>0.0945945945945946</v>
+        <v>0</v>
       </c>
       <c r="AV36">
-        <v>0</v>
+        <v>0.09507042253521127</v>
       </c>
       <c r="AW36">
         <v>0</v>
       </c>
       <c r="AX36">
-        <v>0.07219251336898395</v>
+        <v>0</v>
       </c>
       <c r="AY36">
         <v>0</v>
       </c>
       <c r="AZ36">
-        <v>0</v>
+        <v>0.1100917431192661</v>
       </c>
       <c r="BA36">
-        <v>0.1060606060606061</v>
+        <v>0</v>
       </c>
       <c r="BB36">
-        <v>0.07476635514018691</v>
+        <v>0</v>
       </c>
       <c r="BC36">
         <v>0</v>
@@ -8957,13 +8741,13 @@
         <v>0</v>
       </c>
       <c r="BH36">
-        <v>0</v>
+        <v>0.2396694214876033</v>
       </c>
       <c r="BI36">
         <v>0</v>
       </c>
       <c r="BJ36">
-        <v>0.1069958847736626</v>
+        <v>0</v>
       </c>
       <c r="BK36">
         <v>0</v>
@@ -9010,121 +8794,115 @@
       <c r="BY36">
         <v>0</v>
       </c>
-      <c r="BZ36">
-        <v>0</v>
-      </c>
-      <c r="CA36">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:79">
+    <row r="37" spans="1:77">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I37">
-        <v>0.02423654871546292</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J37">
-        <v>0.0228287841191067</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K37">
-        <v>0.02373737373737374</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L37">
-        <v>0.03044227455485353</v>
+        <v>0.02196261682242991</v>
       </c>
       <c r="M37">
-        <v>0.02447761194029851</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>0.0250501002004008</v>
       </c>
       <c r="O37">
-        <v>0.0313064419024684</v>
+        <v>0.02430379746835443</v>
       </c>
       <c r="P37">
-        <v>0.0293398533007335</v>
+        <v>0.02330293819655522</v>
       </c>
       <c r="Q37">
-        <v>0.01931745009658725</v>
+        <v>0.02508960573476703</v>
       </c>
       <c r="R37">
-        <v>0.0338865836791148</v>
+        <v>0.024</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>0.02574605032182563</v>
       </c>
       <c r="T37">
-        <v>0.02891030392883618</v>
+        <v>0.01674641148325359</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>0.02228915662650603</v>
       </c>
       <c r="V37">
-        <v>0.02482544608223429</v>
+        <v>0.02344231955582974</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>0.0302013422818792</v>
       </c>
       <c r="X37">
-        <v>0.04159869494290375</v>
+        <v>0.02350570852921424</v>
       </c>
       <c r="Y37">
-        <v>0.02861952861952862</v>
+        <v>0.02754820936639119</v>
       </c>
       <c r="Z37">
-        <v>0.03722943722943723</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>0.02196193265007321</v>
       </c>
       <c r="AB37">
         <v>0</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>0.02037617554858934</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="AE37">
-        <v>0.04444444444444445</v>
+        <v>0.02506063055780113</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>0.03099361896080219</v>
       </c>
       <c r="AG37">
-        <v>0.0546583850931677</v>
+        <v>0.0320962888665998</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>0.04531085353003161</v>
       </c>
       <c r="AI37">
         <v>0</v>
       </c>
       <c r="AJ37">
-        <v>0.04382470119521913</v>
+        <v>0</v>
       </c>
       <c r="AK37">
-        <v>0.04403409090909091</v>
+        <v>0.04186046511627907</v>
       </c>
       <c r="AL37">
-        <v>0.04196816208393633</v>
+        <v>0</v>
       </c>
       <c r="AM37">
-        <v>0.06144393241167435</v>
+        <v>0</v>
       </c>
       <c r="AN37">
         <v>0</v>
@@ -9133,34 +8911,34 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.06239460370994941</v>
+        <v>0.117816091954023</v>
       </c>
       <c r="AQ37">
-        <v>0</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="AR37">
-        <v>0</v>
+        <v>0.1234177215189873</v>
       </c>
       <c r="AS37">
         <v>0</v>
       </c>
       <c r="AT37">
-        <v>0.0671785028790787</v>
+        <v>0</v>
       </c>
       <c r="AU37">
-        <v>0.0694980694980695</v>
+        <v>0</v>
       </c>
       <c r="AV37">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="AW37">
         <v>0</v>
       </c>
       <c r="AX37">
-        <v>0</v>
+        <v>0.1150793650793651</v>
       </c>
       <c r="AY37">
-        <v>0.1035422343324251</v>
+        <v>0</v>
       </c>
       <c r="AZ37">
         <v>0</v>
@@ -9240,103 +9018,97 @@
       <c r="BY37">
         <v>0</v>
       </c>
-      <c r="BZ37">
-        <v>0</v>
-      </c>
-      <c r="CA37">
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="1:79">
+    <row r="38" spans="1:77">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I38">
-        <v>0.0174503150751333</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J38">
-        <v>0.01538461538461539</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K38">
-        <v>0.02121212121212121</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L38">
-        <v>0.03044227455485353</v>
+        <v>0.02196261682242991</v>
       </c>
       <c r="M38">
-        <v>0.02686567164179104</v>
+        <v>0.0235917188252287</v>
       </c>
       <c r="N38">
-        <v>0.02038369304556355</v>
+        <v>0.0250501002004008</v>
       </c>
       <c r="O38">
-        <v>0.02889825406381698</v>
+        <v>0.02430379746835443</v>
       </c>
       <c r="P38">
-        <v>0.02383863080684596</v>
+        <v>0.02228976697061803</v>
       </c>
       <c r="Q38">
-        <v>0.025756600128783</v>
+        <v>0.0261136712749616</v>
       </c>
       <c r="R38">
-        <v>0.03526970954356846</v>
+        <v>0.02457142857142857</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>0.02457577530719719</v>
       </c>
       <c r="T38">
-        <v>0.02446256486286138</v>
+        <v>0.02751196172248804</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>0.02108433734939759</v>
       </c>
       <c r="V38">
-        <v>0.02948021722265322</v>
+        <v>0.02344231955582974</v>
       </c>
       <c r="W38">
-        <v>0.02274573517465475</v>
+        <v>0.0302013422818792</v>
       </c>
       <c r="X38">
-        <v>0.03752039151712887</v>
+        <v>0.02753525856279382</v>
       </c>
       <c r="Y38">
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>0.02770562770562771</v>
+        <v>0.02155172413793104</v>
       </c>
       <c r="AA38">
         <v>0</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>0.02706766917293233</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>0.02664576802507837</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="AE38">
-        <v>0.03068783068783069</v>
+        <v>0.03152789005658852</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>0.03646308113035551</v>
       </c>
       <c r="AG38">
-        <v>0.03354037267080745</v>
+        <v>0</v>
       </c>
       <c r="AH38">
         <v>0</v>
@@ -9348,16 +9120,16 @@
         <v>0</v>
       </c>
       <c r="AK38">
-        <v>0.0625</v>
+        <v>0.04961240310077519</v>
       </c>
       <c r="AL38">
-        <v>0.07525325615050651</v>
+        <v>0.06768558951965066</v>
       </c>
       <c r="AM38">
-        <v>0.07680491551459294</v>
+        <v>0.08851674641148326</v>
       </c>
       <c r="AN38">
-        <v>0.0564516129032258</v>
+        <v>0</v>
       </c>
       <c r="AO38">
         <v>0</v>
@@ -9369,25 +9141,25 @@
         <v>0</v>
       </c>
       <c r="AR38">
-        <v>0.04324324324324325</v>
+        <v>0</v>
       </c>
       <c r="AS38">
         <v>0</v>
       </c>
       <c r="AT38">
-        <v>0.04990403071017274</v>
+        <v>0</v>
       </c>
       <c r="AU38">
-        <v>0.09073359073359073</v>
+        <v>0</v>
       </c>
       <c r="AV38">
-        <v>0.08686868686868687</v>
+        <v>0</v>
       </c>
       <c r="AW38">
         <v>0</v>
       </c>
       <c r="AX38">
-        <v>0.1310160427807487</v>
+        <v>0</v>
       </c>
       <c r="AY38">
         <v>0</v>
@@ -9396,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="BA38">
-        <v>0.1121212121212121</v>
+        <v>0</v>
       </c>
       <c r="BB38">
         <v>0</v>
@@ -9450,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="BS38">
-        <v>0.2971014492753623</v>
+        <v>0</v>
       </c>
       <c r="BT38">
         <v>0</v>
@@ -9465,141 +9237,135 @@
         <v>0</v>
       </c>
       <c r="BX38">
-        <v>0.4098360655737705</v>
+        <v>0</v>
       </c>
       <c r="BY38">
         <v>0</v>
       </c>
-      <c r="BZ38">
-        <v>1</v>
-      </c>
-      <c r="CA38">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:79">
+    <row r="39" spans="1:77">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I39">
-        <v>0.02132816286960737</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J39">
-        <v>0.02382133995037221</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K39">
-        <v>0.02474747474747475</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L39">
-        <v>0.03044227455485353</v>
+        <v>0.02196261682242991</v>
       </c>
       <c r="M39">
-        <v>0.01791044776119403</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N39">
-        <v>0.02038369304556355</v>
+        <v>0.02454909819639279</v>
       </c>
       <c r="O39">
-        <v>0.03010234798314269</v>
+        <v>0.02430379746835443</v>
       </c>
       <c r="P39">
-        <v>0.02811735941320294</v>
+        <v>0.02279635258358663</v>
       </c>
       <c r="Q39">
-        <v>0.02511268512556343</v>
+        <v>0.02560163850486431</v>
       </c>
       <c r="R39">
-        <v>0.0297372060857538</v>
+        <v>0.02457142857142857</v>
       </c>
       <c r="S39">
-        <v>0.02267739575713241</v>
+        <v>0.02691632533645407</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>0.01867469879518072</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>0.02467612584824183</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>0.02953020134228188</v>
       </c>
       <c r="X39">
-        <v>0.03833605220228385</v>
+        <v>0.02350570852921424</v>
       </c>
       <c r="Y39">
-        <v>0.02946127946127946</v>
+        <v>0.02548209366391185</v>
       </c>
       <c r="Z39">
-        <v>0.02337662337662338</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="AA39">
-        <v>0.03970741901776385</v>
+        <v>0.02635431918008785</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>0.02556390977443609</v>
       </c>
       <c r="AC39">
         <v>0</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>0.03213166144200627</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>0.03395311236863379</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>0.03555150410209663</v>
       </c>
       <c r="AG39">
-        <v>0.04968944099378882</v>
+        <v>0.02607823470411234</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>0.02950474183350896</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="AJ39">
-        <v>0.05577689243027888</v>
+        <v>0</v>
       </c>
       <c r="AK39">
-        <v>0.05823863636363636</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="AL39">
-        <v>0.07525325615050651</v>
+        <v>0</v>
       </c>
       <c r="AM39">
-        <v>0.07834101382488479</v>
+        <v>0</v>
       </c>
       <c r="AN39">
-        <v>0.04516129032258064</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AO39">
-        <v>0.06045751633986928</v>
+        <v>0</v>
       </c>
       <c r="AP39">
         <v>0</v>
       </c>
       <c r="AQ39">
-        <v>0</v>
+        <v>0.09177215189873418</v>
       </c>
       <c r="AR39">
-        <v>0.06486486486486487</v>
+        <v>0</v>
       </c>
       <c r="AS39">
         <v>0</v>
@@ -9608,10 +9374,10 @@
         <v>0</v>
       </c>
       <c r="AU39">
-        <v>0.08687258687258688</v>
+        <v>0</v>
       </c>
       <c r="AV39">
-        <v>0.05858585858585859</v>
+        <v>0</v>
       </c>
       <c r="AW39">
         <v>0</v>
@@ -9626,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="BA39">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="BB39">
         <v>0</v>
@@ -9671,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="BP39">
-        <v>0.1649484536082474</v>
+        <v>0</v>
       </c>
       <c r="BQ39">
         <v>0</v>
@@ -9700,103 +9466,97 @@
       <c r="BY39">
         <v>0</v>
       </c>
-      <c r="BZ39">
-        <v>0</v>
-      </c>
-      <c r="CA39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="1:79">
+    <row r="40" spans="1:77">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I40">
-        <v>0.01938923897237033</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K40">
-        <v>0.02272727272727273</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="M40">
-        <v>0.02805970149253731</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>0.02354709418837675</v>
       </c>
       <c r="O40">
-        <v>0.0313064419024684</v>
+        <v>0.02430379746835443</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>0.01975683890577508</v>
       </c>
       <c r="Q40">
-        <v>0.02768834513844173</v>
+        <v>0.02508960573476703</v>
       </c>
       <c r="R40">
-        <v>0.03042876901798064</v>
+        <v>0.02571428571428571</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>0.02574605032182563</v>
       </c>
       <c r="T40">
-        <v>0.03780578206078577</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>0.02228915662650603</v>
       </c>
       <c r="V40">
-        <v>0.03025601241272304</v>
+        <v>0.02590993214065392</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>0.02416107382550335</v>
       </c>
       <c r="X40">
-        <v>0.0432300163132137</v>
+        <v>0.03089321692411014</v>
       </c>
       <c r="Y40">
-        <v>0.03198653198653199</v>
+        <v>0.02410468319559229</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>0.02945402298850575</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>0.02269399707174231</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>0.02556390977443609</v>
       </c>
       <c r="AC40">
-        <v>0.05157894736842105</v>
+        <v>0</v>
       </c>
       <c r="AD40">
         <v>0</v>
       </c>
       <c r="AE40">
-        <v>0.04338624338624339</v>
+        <v>0.03476151980598222</v>
       </c>
       <c r="AF40">
-        <v>0.04596273291925466</v>
+        <v>0.03463992707383774</v>
       </c>
       <c r="AG40">
-        <v>0.05962732919254658</v>
+        <v>0</v>
       </c>
       <c r="AH40">
         <v>0</v>
@@ -9805,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="AJ40">
-        <v>0</v>
+        <v>0.0494752623688156</v>
       </c>
       <c r="AK40">
         <v>0</v>
@@ -9820,16 +9580,16 @@
         <v>0</v>
       </c>
       <c r="AO40">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="AP40">
-        <v>0</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="AQ40">
         <v>0</v>
       </c>
       <c r="AR40">
-        <v>0.06306306306306306</v>
+        <v>0</v>
       </c>
       <c r="AS40">
         <v>0</v>
@@ -9859,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="BB40">
-        <v>0.1433021806853582</v>
+        <v>0</v>
       </c>
       <c r="BC40">
         <v>0</v>
@@ -9886,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="BK40">
-        <v>0.1735537190082645</v>
+        <v>0</v>
       </c>
       <c r="BL40">
         <v>0</v>
@@ -9928,120 +9688,114 @@
         <v>0</v>
       </c>
       <c r="BY40">
-        <v>1</v>
-      </c>
-      <c r="BZ40">
-        <v>0</v>
-      </c>
-      <c r="CA40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:79">
+    <row r="41" spans="1:77">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I41">
-        <v>0.01987396994667959</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J41">
-        <v>0.02084367245657568</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K41">
-        <v>0.02525252525252525</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>0.02242990654205607</v>
       </c>
       <c r="M41">
-        <v>0.02268656716417911</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>0.02354709418837675</v>
       </c>
       <c r="O41">
-        <v>0.02649006622516556</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>0.02279635258358663</v>
       </c>
       <c r="Q41">
-        <v>0.03412749517063748</v>
+        <v>0.02508960573476703</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>0.02628571428571429</v>
       </c>
       <c r="S41">
-        <v>0.03365032918800293</v>
+        <v>0.02574605032182563</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>0.02093301435406699</v>
       </c>
       <c r="U41">
-        <v>0.03866171003717472</v>
+        <v>0.01927710843373494</v>
       </c>
       <c r="V41">
-        <v>0.03801396431342126</v>
+        <v>0.02590993214065392</v>
       </c>
       <c r="W41">
-        <v>0.03005686433793664</v>
+        <v>0.02751677852348993</v>
       </c>
       <c r="X41">
-        <v>0.03915171288743882</v>
+        <v>0.02216252518468771</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>0.02685950413223141</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>0.0314787701317716</v>
       </c>
       <c r="AB41">
         <v>0</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>0.02821316614420063</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>0.03134796238244514</v>
       </c>
       <c r="AE41">
-        <v>0.0455026455026455</v>
+        <v>0</v>
       </c>
       <c r="AF41">
-        <v>0.04968944099378882</v>
+        <v>0.02825888787602552</v>
       </c>
       <c r="AG41">
-        <v>0.0484472049689441</v>
+        <v>0.03009027081243731</v>
       </c>
       <c r="AH41">
-        <v>0.05798969072164949</v>
+        <v>0.03898840885142255</v>
       </c>
       <c r="AI41">
-        <v>0</v>
+        <v>0.04857142857142857</v>
       </c>
       <c r="AJ41">
-        <v>0</v>
+        <v>0.04047976011994003</v>
       </c>
       <c r="AK41">
-        <v>0</v>
+        <v>0.04341085271317829</v>
       </c>
       <c r="AL41">
-        <v>0</v>
+        <v>0.08296943231441048</v>
       </c>
       <c r="AM41">
         <v>0</v>
@@ -10065,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="AT41">
-        <v>0.09788867562380038</v>
+        <v>0</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -10086,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="BA41">
-        <v>0.1090909090909091</v>
+        <v>0</v>
       </c>
       <c r="BB41">
         <v>0</v>
@@ -10113,7 +9867,7 @@
         <v>0</v>
       </c>
       <c r="BJ41">
-        <v>0.1934156378600823</v>
+        <v>0</v>
       </c>
       <c r="BK41">
         <v>0</v>
@@ -10160,94 +9914,88 @@
       <c r="BY41">
         <v>0</v>
       </c>
-      <c r="BZ41">
-        <v>0</v>
-      </c>
-      <c r="CA41">
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="1:79">
+    <row r="42" spans="1:77">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J42">
-        <v>0.01588089330024814</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K42">
-        <v>0.02424242424242424</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>0.02149532710280374</v>
       </c>
       <c r="M42">
-        <v>0.02507462686567164</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>0.0250501002004008</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.02430379746835443</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>0.02508960573476703</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>0.02571428571428571</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>0.02457577530719719</v>
       </c>
       <c r="T42">
-        <v>0.03928836174944404</v>
+        <v>0.0257177033492823</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>0.02349397590361446</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>0.02714373843306601</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>0.02416107382550335</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>0.02686366689053056</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>0.02548209366391185</v>
       </c>
       <c r="Z42">
-        <v>0.04069264069264069</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="AA42">
-        <v>0.05120167189132706</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>0.0274294670846395</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="AE42">
         <v>0</v>
@@ -10256,43 +10004,43 @@
         <v>0</v>
       </c>
       <c r="AG42">
-        <v>0</v>
+        <v>0.04112337011033099</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>0.03266596417281348</v>
       </c>
       <c r="AI42">
-        <v>0</v>
+        <v>0.04857142857142857</v>
       </c>
       <c r="AJ42">
         <v>0</v>
       </c>
       <c r="AK42">
-        <v>0.05823863636363636</v>
+        <v>0</v>
       </c>
       <c r="AL42">
         <v>0</v>
       </c>
       <c r="AM42">
-        <v>0.05529953917050692</v>
+        <v>0</v>
       </c>
       <c r="AN42">
-        <v>0.06451612903225806</v>
+        <v>0</v>
       </c>
       <c r="AO42">
-        <v>0.08169934640522876</v>
+        <v>0</v>
       </c>
       <c r="AP42">
         <v>0</v>
       </c>
       <c r="AQ42">
-        <v>0.06271186440677966</v>
+        <v>0</v>
       </c>
       <c r="AR42">
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>0.08761904761904762</v>
+        <v>0</v>
       </c>
       <c r="AT42">
         <v>0</v>
@@ -10301,16 +10049,16 @@
         <v>0</v>
       </c>
       <c r="AV42">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="AW42">
         <v>0</v>
       </c>
       <c r="AX42">
-        <v>0.1042780748663102</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="AY42">
-        <v>0.1416893732970027</v>
+        <v>0</v>
       </c>
       <c r="AZ42">
         <v>0</v>
@@ -10319,10 +10067,10 @@
         <v>0</v>
       </c>
       <c r="BB42">
-        <v>0.09657320872274143</v>
+        <v>0</v>
       </c>
       <c r="BC42">
-        <v>0.1457627118644068</v>
+        <v>0</v>
       </c>
       <c r="BD42">
         <v>0</v>
@@ -10334,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="BG42">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="BH42">
         <v>0</v>
@@ -10349,22 +10097,22 @@
         <v>0</v>
       </c>
       <c r="BL42">
-        <v>0.1946902654867257</v>
+        <v>0</v>
       </c>
       <c r="BM42">
         <v>0</v>
       </c>
       <c r="BN42">
-        <v>0.1751152073732719</v>
+        <v>0</v>
       </c>
       <c r="BO42">
-        <v>0.1594202898550725</v>
+        <v>0</v>
       </c>
       <c r="BP42">
-        <v>0.1804123711340206</v>
+        <v>0</v>
       </c>
       <c r="BQ42">
-        <v>0.2771739130434783</v>
+        <v>0</v>
       </c>
       <c r="BR42">
         <v>0</v>
@@ -10390,121 +10138,115 @@
       <c r="BY42">
         <v>0</v>
       </c>
-      <c r="BZ42">
-        <v>0</v>
-      </c>
-      <c r="CA42">
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="1:79">
+    <row r="43" spans="1:77">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I43">
-        <v>0.02569074163839069</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J43">
-        <v>0.02084367245657568</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K43">
-        <v>0.02626262626262626</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L43">
-        <v>0.02642159678345778</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="M43">
-        <v>0.02447761194029851</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N43">
-        <v>0.01798561151079137</v>
+        <v>0.02454909819639279</v>
       </c>
       <c r="O43">
-        <v>0.03070439494280554</v>
+        <v>0.02379746835443038</v>
       </c>
       <c r="P43">
-        <v>0.0226161369193154</v>
+        <v>0.02330293819655522</v>
       </c>
       <c r="Q43">
-        <v>0.03155183515775917</v>
+        <v>0.02457757296466974</v>
       </c>
       <c r="R43">
-        <v>0.03042876901798064</v>
+        <v>0.02571428571428571</v>
       </c>
       <c r="S43">
-        <v>0.0160936356986101</v>
+        <v>0.02516091281451141</v>
       </c>
       <c r="T43">
-        <v>0.02668643439584878</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="U43">
-        <v>0.03197026022304833</v>
+        <v>0.01867469879518072</v>
       </c>
       <c r="V43">
-        <v>0.03723816912335143</v>
+        <v>0.01850709438618137</v>
       </c>
       <c r="W43">
-        <v>0.03249390739236393</v>
+        <v>0.02348993288590604</v>
       </c>
       <c r="X43">
-        <v>0.04078303425774878</v>
+        <v>0.02149093351242445</v>
       </c>
       <c r="Y43">
-        <v>0.02356902356902357</v>
+        <v>0.02823691460055096</v>
       </c>
       <c r="Z43">
-        <v>0.0303030303030303</v>
+        <v>0.03017241379310345</v>
       </c>
       <c r="AA43">
         <v>0</v>
       </c>
       <c r="AB43">
-        <v>0.02824267782426778</v>
+        <v>0.02781954887218045</v>
       </c>
       <c r="AC43">
-        <v>0.04947368421052632</v>
+        <v>0.02664576802507837</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>0.02821316614420063</v>
       </c>
       <c r="AE43">
-        <v>0.0328042328042328</v>
+        <v>0.03152789005658852</v>
       </c>
       <c r="AF43">
-        <v>0.04720496894409938</v>
+        <v>0.0300820419325433</v>
       </c>
       <c r="AG43">
-        <v>0.04099378881987577</v>
+        <v>0.04012036108324975</v>
       </c>
       <c r="AH43">
-        <v>0.03737113402061856</v>
+        <v>0</v>
       </c>
       <c r="AI43">
-        <v>0</v>
+        <v>0.05428571428571428</v>
       </c>
       <c r="AJ43">
-        <v>0.04249667994687915</v>
+        <v>0.04197901049475262</v>
       </c>
       <c r="AK43">
-        <v>0</v>
+        <v>0.04186046511627907</v>
       </c>
       <c r="AL43">
-        <v>0.05643994211287989</v>
+        <v>0</v>
       </c>
       <c r="AM43">
-        <v>0</v>
+        <v>0.06937799043062201</v>
       </c>
       <c r="AN43">
         <v>0</v>
@@ -10519,13 +10261,13 @@
         <v>0</v>
       </c>
       <c r="AR43">
-        <v>0.04144144144144144</v>
+        <v>0</v>
       </c>
       <c r="AS43">
         <v>0</v>
       </c>
       <c r="AT43">
-        <v>0.06525911708253358</v>
+        <v>0</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -10549,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="BB43">
-        <v>0.1401869158878505</v>
+        <v>0</v>
       </c>
       <c r="BC43">
         <v>0</v>
@@ -10558,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="BE43">
-        <v>0.09454545454545454</v>
+        <v>0</v>
       </c>
       <c r="BF43">
         <v>0</v>
@@ -10567,13 +10309,13 @@
         <v>0</v>
       </c>
       <c r="BH43">
-        <v>0.09259259259259259</v>
+        <v>0</v>
       </c>
       <c r="BI43">
         <v>0</v>
       </c>
       <c r="BJ43">
-        <v>0.09876543209876543</v>
+        <v>0</v>
       </c>
       <c r="BK43">
         <v>0</v>
@@ -10620,148 +10362,142 @@
       <c r="BY43">
         <v>0</v>
       </c>
-      <c r="BZ43">
-        <v>0</v>
-      </c>
-      <c r="CA43">
-        <v>0</v>
-      </c>
     </row>
-    <row r="44" spans="1:79">
+    <row r="44" spans="1:77">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I44">
-        <v>0.02278235579253514</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J44">
-        <v>0.02580645161290323</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K44">
-        <v>0.01717171717171717</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L44">
-        <v>0.02814474439977025</v>
+        <v>0.02196261682242991</v>
       </c>
       <c r="M44">
-        <v>0.01194029850746269</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N44">
-        <v>0.02278177458033573</v>
+        <v>0.0250501002004008</v>
       </c>
       <c r="O44">
-        <v>0.03070439494280554</v>
+        <v>0.02177215189873418</v>
       </c>
       <c r="P44">
-        <v>0.02689486552567237</v>
+        <v>0.02228976697061803</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.02508960573476703</v>
       </c>
       <c r="R44">
-        <v>0.03319502074688797</v>
+        <v>0.02628571428571429</v>
       </c>
       <c r="S44">
-        <v>0.01975128017556694</v>
+        <v>0.0280866003510825</v>
       </c>
       <c r="T44">
-        <v>0.03187546330615271</v>
+        <v>0.02511961722488038</v>
       </c>
       <c r="U44">
-        <v>0.01858736059479554</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>0.01912399753238742</v>
       </c>
       <c r="W44">
-        <v>0.01949634443541836</v>
+        <v>0.02483221476510067</v>
       </c>
       <c r="X44">
-        <v>0.02446982055464927</v>
+        <v>0.02552048354600403</v>
       </c>
       <c r="Y44">
-        <v>0.02946127946127946</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="Z44">
-        <v>0.01645021645021645</v>
+        <v>0.02370689655172414</v>
       </c>
       <c r="AA44">
-        <v>0.0303030303030303</v>
+        <v>0.0212298682284041</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>0.02932330827067669</v>
       </c>
       <c r="AC44">
-        <v>0.03263157894736842</v>
+        <v>0.03526645768025078</v>
       </c>
       <c r="AD44">
-        <v>0.03488372093023256</v>
+        <v>0.02507836990595611</v>
       </c>
       <c r="AE44">
-        <v>0.01693121693121693</v>
+        <v>0.03314470493128537</v>
       </c>
       <c r="AF44">
-        <v>0.02608695652173913</v>
+        <v>0.03099361896080219</v>
       </c>
       <c r="AG44">
-        <v>0.03975155279503106</v>
+        <v>0</v>
       </c>
       <c r="AH44">
         <v>0</v>
       </c>
       <c r="AI44">
-        <v>0.02207792207792208</v>
+        <v>0</v>
       </c>
       <c r="AJ44">
-        <v>0</v>
+        <v>0.05247376311844078</v>
       </c>
       <c r="AK44">
-        <v>0.05539772727272727</v>
+        <v>0</v>
       </c>
       <c r="AL44">
-        <v>0.0723589001447178</v>
+        <v>0</v>
       </c>
       <c r="AM44">
-        <v>0.08141321044546851</v>
+        <v>0</v>
       </c>
       <c r="AN44">
-        <v>0.06612903225806452</v>
+        <v>0</v>
       </c>
       <c r="AO44">
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>0.06745362563237774</v>
+        <v>0</v>
       </c>
       <c r="AQ44">
-        <v>0.03728813559322034</v>
+        <v>0</v>
       </c>
       <c r="AR44">
-        <v>0.07567567567567568</v>
+        <v>0</v>
       </c>
       <c r="AS44">
-        <v>0.08571428571428572</v>
+        <v>0</v>
       </c>
       <c r="AT44">
         <v>0</v>
       </c>
       <c r="AU44">
-        <v>0.05405405405405406</v>
+        <v>0</v>
       </c>
       <c r="AV44">
-        <v>0.07474747474747474</v>
+        <v>0</v>
       </c>
       <c r="AW44">
         <v>0</v>
@@ -10773,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="AZ44">
-        <v>0</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="BA44">
         <v>0</v>
@@ -10788,16 +10524,16 @@
         <v>0</v>
       </c>
       <c r="BE44">
-        <v>0.09454545454545454</v>
+        <v>0</v>
       </c>
       <c r="BF44">
         <v>0</v>
       </c>
       <c r="BG44">
-        <v>0.1691176470588235</v>
+        <v>0</v>
       </c>
       <c r="BH44">
-        <v>0</v>
+        <v>0.231404958677686</v>
       </c>
       <c r="BI44">
         <v>0</v>
@@ -10812,16 +10548,16 @@
         <v>0</v>
       </c>
       <c r="BM44">
-        <v>0.08108108108108109</v>
+        <v>0</v>
       </c>
       <c r="BN44">
-        <v>0.06451612903225806</v>
+        <v>0</v>
       </c>
       <c r="BO44">
         <v>0</v>
       </c>
       <c r="BP44">
-        <v>0.1185567010309278</v>
+        <v>0</v>
       </c>
       <c r="BQ44">
         <v>0</v>
@@ -10833,13 +10569,13 @@
         <v>0</v>
       </c>
       <c r="BT44">
-        <v>0.2727272727272727</v>
+        <v>0</v>
       </c>
       <c r="BU44">
         <v>0</v>
       </c>
       <c r="BV44">
-        <v>0.1923076923076923</v>
+        <v>0</v>
       </c>
       <c r="BW44">
         <v>0</v>
@@ -10850,94 +10586,88 @@
       <c r="BY44">
         <v>0</v>
       </c>
-      <c r="BZ44">
-        <v>0</v>
-      </c>
-      <c r="CA44">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:79">
+    <row r="45" spans="1:77">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I45">
-        <v>0.02278235579253514</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J45">
-        <v>0.02183622828784119</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K45">
-        <v>0.02474747474747475</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L45">
-        <v>0.03044227455485353</v>
+        <v>0.02102803738317757</v>
       </c>
       <c r="M45">
-        <v>0.02208955223880597</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N45">
-        <v>0.02338129496402878</v>
+        <v>0.02454909819639279</v>
       </c>
       <c r="O45">
-        <v>0.02528597230583986</v>
+        <v>0.02329113924050633</v>
       </c>
       <c r="P45">
-        <v>0.02811735941320294</v>
+        <v>0.0243161094224924</v>
       </c>
       <c r="Q45">
-        <v>0.01931745009658725</v>
+        <v>0.02560163850486431</v>
       </c>
       <c r="R45">
-        <v>0.03319502074688797</v>
+        <v>0.02457142857142857</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>0.02750146284376829</v>
       </c>
       <c r="T45">
-        <v>0.02520385470719051</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>0.01867469879518072</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>0.01974090067859346</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>0.02818791946308725</v>
       </c>
       <c r="X45">
-        <v>0.03262642740619902</v>
+        <v>0.02686366689053056</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>0.02685950413223141</v>
       </c>
       <c r="Z45">
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>0.02708638360175696</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>0.02556390977443609</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>0.02821316614420063</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>0.03213166144200627</v>
       </c>
       <c r="AE45">
         <v>0</v>
@@ -10949,28 +10679,28 @@
         <v>0</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>0.0368809272918862</v>
       </c>
       <c r="AI45">
         <v>0</v>
       </c>
       <c r="AJ45">
-        <v>0.05046480743691899</v>
+        <v>0.0494752623688156</v>
       </c>
       <c r="AK45">
-        <v>0.05823863636363636</v>
+        <v>0</v>
       </c>
       <c r="AL45">
-        <v>0.07525325615050651</v>
+        <v>0.08296943231441048</v>
       </c>
       <c r="AM45">
-        <v>0.07834101382488479</v>
+        <v>0</v>
       </c>
       <c r="AN45">
-        <v>0.06935483870967742</v>
+        <v>0</v>
       </c>
       <c r="AO45">
-        <v>0</v>
+        <v>0.08033240997229917</v>
       </c>
       <c r="AP45">
         <v>0</v>
@@ -10988,25 +10718,25 @@
         <v>0</v>
       </c>
       <c r="AU45">
-        <v>0.09652509652509653</v>
+        <v>0</v>
       </c>
       <c r="AV45">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="AW45">
         <v>0</v>
       </c>
       <c r="AX45">
-        <v>0.08288770053475936</v>
+        <v>0</v>
       </c>
       <c r="AY45">
-        <v>0</v>
+        <v>0.1239669421487603</v>
       </c>
       <c r="AZ45">
         <v>0</v>
       </c>
       <c r="BA45">
-        <v>0.09696969696969697</v>
+        <v>0</v>
       </c>
       <c r="BB45">
         <v>0</v>
@@ -11033,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="BJ45">
-        <v>0.1358024691358025</v>
+        <v>0</v>
       </c>
       <c r="BK45">
         <v>0</v>
@@ -11042,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="BM45">
-        <v>0.1576576576576577</v>
+        <v>0</v>
       </c>
       <c r="BN45">
         <v>0</v>
@@ -11063,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="BT45">
-        <v>0.2727272727272727</v>
+        <v>0</v>
       </c>
       <c r="BU45">
         <v>0</v>
@@ -11080,109 +10810,103 @@
       <c r="BY45">
         <v>0</v>
       </c>
-      <c r="BZ45">
-        <v>0</v>
-      </c>
-      <c r="CA45">
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="1:79">
+    <row r="46" spans="1:77">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I46">
-        <v>0.02423654871546292</v>
+        <v>0.02308678922616503</v>
       </c>
       <c r="J46">
-        <v>0.02233250620347394</v>
+        <v>0.02306353350739774</v>
       </c>
       <c r="K46">
-        <v>0.01868686868686869</v>
+        <v>0.02334979793444095</v>
       </c>
       <c r="L46">
-        <v>0.01550832854681218</v>
+        <v>0.02289719626168224</v>
       </c>
       <c r="M46">
-        <v>0.02805970149253731</v>
+        <v>0.02455464612421762</v>
       </c>
       <c r="N46">
-        <v>0.02937649880095923</v>
+        <v>0.02404809619238477</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="P46">
-        <v>0.02628361858190709</v>
+        <v>0.02279635258358663</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>0.02406554019457245</v>
       </c>
       <c r="R46">
-        <v>0.01936376210235131</v>
+        <v>0.024</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>0.02340550029256875</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="U46">
-        <v>0.02602230483271376</v>
+        <v>0.02168674698795181</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>0.02097470697100555</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>0.02348993288590604</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>0.02887844190732035</v>
       </c>
       <c r="Y46">
-        <v>0.03367003367003367</v>
+        <v>0.03168044077134986</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>0.02370689655172414</v>
       </c>
       <c r="AA46">
-        <v>0.04597701149425287</v>
+        <v>0</v>
       </c>
       <c r="AB46">
-        <v>0.04288702928870293</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>0.02429467084639498</v>
       </c>
       <c r="AD46">
-        <v>0.04439746300211417</v>
+        <v>0.03213166144200627</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>0.02344381568310428</v>
       </c>
       <c r="AF46">
-        <v>0.03975155279503106</v>
+        <v>0.03372835004557885</v>
       </c>
       <c r="AG46">
-        <v>0</v>
+        <v>0.03911735205616851</v>
       </c>
       <c r="AH46">
         <v>0</v>
       </c>
       <c r="AI46">
-        <v>0.04935064935064935</v>
+        <v>0</v>
       </c>
       <c r="AJ46">
         <v>0</v>
@@ -11200,19 +10924,19 @@
         <v>0</v>
       </c>
       <c r="AO46">
-        <v>0.07843137254901961</v>
+        <v>0</v>
       </c>
       <c r="AP46">
-        <v>0.05564924114671164</v>
+        <v>0</v>
       </c>
       <c r="AQ46">
-        <v>0.08983050847457627</v>
+        <v>0.0949367088607595</v>
       </c>
       <c r="AR46">
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>0.06476190476190476</v>
+        <v>0.1028938906752412</v>
       </c>
       <c r="AT46">
         <v>0</v>
@@ -11221,19 +10945,19 @@
         <v>0</v>
       </c>
       <c r="AV46">
-        <v>0.06060606060606061</v>
+        <v>0</v>
       </c>
       <c r="AW46">
-        <v>0.06981981981981981</v>
+        <v>0</v>
       </c>
       <c r="AX46">
         <v>0</v>
       </c>
       <c r="AY46">
-        <v>0.07084468664850137</v>
+        <v>0</v>
       </c>
       <c r="AZ46">
-        <v>0.1526946107784431</v>
+        <v>0</v>
       </c>
       <c r="BA46">
         <v>0</v>
@@ -11242,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="BC46">
-        <v>0.176271186440678</v>
+        <v>0</v>
       </c>
       <c r="BD46">
         <v>0</v>
@@ -11251,16 +10975,16 @@
         <v>0</v>
       </c>
       <c r="BF46">
-        <v>0.1318681318681319</v>
+        <v>0</v>
       </c>
       <c r="BG46">
         <v>0</v>
       </c>
       <c r="BH46">
-        <v>0.08888888888888889</v>
+        <v>0</v>
       </c>
       <c r="BI46">
-        <v>0.1885245901639344</v>
+        <v>0</v>
       </c>
       <c r="BJ46">
         <v>0</v>
@@ -11269,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="BL46">
-        <v>0.1725663716814159</v>
+        <v>0</v>
       </c>
       <c r="BM46">
         <v>0</v>
@@ -11278,16 +11002,16 @@
         <v>0</v>
       </c>
       <c r="BO46">
-        <v>0.1207729468599034</v>
+        <v>0</v>
       </c>
       <c r="BP46">
         <v>0</v>
       </c>
       <c r="BQ46">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="BR46">
-        <v>0.1676300578034682</v>
+        <v>0</v>
       </c>
       <c r="BS46">
         <v>0</v>
@@ -11308,12 +11032,6 @@
         <v>0</v>
       </c>
       <c r="BY46">
-        <v>0</v>
-      </c>
-      <c r="BZ46">
-        <v>0</v>
-      </c>
-      <c r="CA46">
         <v>0</v>
       </c>
     </row>
